--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -115,6 +115,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">a、后台产品分类：http://wx.adjyc.cn/web/index.php?c=site&amp;a=entry&amp;m=ewei_shopv2&amp;do=web&amp;r=goods.category
 a1. 差查询和导出功能，其他ok。
 a2. 编辑分类，可修改分类名称，插入子分类。ok
@@ -168,6 +174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>目前系统没有，具体表现形式，请详细说明，用户属性指啥？商品属性应该属于商品管理。</t>
     </r>
     <r>
@@ -192,6 +204,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>目前系统没有，具体表现形式，请详细说明？规格值应该属于商品管理。</t>
     </r>
     <r>
@@ -232,6 +250,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>卡密、二维码-</t>
     </r>
     <r>
@@ -246,6 +270,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>系统目前有相应功能需测试
 卡密、二维码-</t>
     </r>
@@ -261,6 +291,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>虚拟物品？</t>
     </r>
     <r>
@@ -275,6 +311,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>卡密-</t>
     </r>
     <r>
@@ -289,6 +331,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>系统目前有相应功能需测试
 卡密-</t>
     </r>
@@ -336,6 +384,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>品牌新老客户没有</t>
     </r>
     <r>
@@ -658,7 +712,7 @@
     <t>拼团</t>
   </si>
   <si>
-    <t>拼团ok</t>
+    <t>拼团ok,模板不适应手机</t>
   </si>
   <si>
     <t>秒杀</t>
@@ -711,12 +765,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,12 +792,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -757,29 +805,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,40 +832,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,9 +848,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,7 +872,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,7 +908,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -891,15 +915,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,7 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1003,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,13 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,102 +1136,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,15 +1201,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1180,56 +1212,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,160 +1234,219 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1413,21 +1454,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1439,43 +1474,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1828,1092 +1848,1092 @@
   <sheetPr/>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="48.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="38" style="6" customWidth="1"/>
+    <col min="7" max="7" width="38" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="1" customFormat="1" ht="66" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>12</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="313.5" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="409.5" spans="1:7">
+      <c r="A3" s="10"/>
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" s="1" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9">
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="99" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" s="1" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7" t="s">
+    <row r="6" s="1" customFormat="1" ht="99" spans="1:7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
         <v>6</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+    <row r="8" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9">
+      <c r="E10" s="6"/>
+      <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8" t="s">
+    <row r="11" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
+    <row r="12" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7">
         <v>12</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" s="1" customFormat="1" ht="66" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7">
         <v>8</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="7" t="s">
+    <row r="15" s="1" customFormat="1" ht="99" spans="1:7">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>3</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>2</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7">
         <v>8</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7">
         <v>6</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="99" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" s="1" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="15" t="s">
+    <row r="23" s="1" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A23" s="10"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="15" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="18" t="s">
+    <row r="25" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A26" s="17" t="s">
+    <row r="26" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A26" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17" t="s">
+    <row r="27" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A27" s="15"/>
+      <c r="B27" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="99" spans="1:7">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17" t="s">
+    <row r="28" s="1" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A30" s="17" t="s">
+    <row r="30" s="1" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A30" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17" t="s">
+    <row r="31" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="132" spans="1:7">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17" t="s">
+    <row r="32" s="1" customFormat="1" ht="66" spans="1:7">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="9" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="9" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="9" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="9" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A37" s="18"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="9" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="9" t="s">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="9" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:7">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9">
+      <c r="E40" s="6"/>
+      <c r="F40" s="7">
         <v>6</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:7">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="21" t="s">
+    <row r="41" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9">
+      <c r="E41" s="6"/>
+      <c r="F41" s="7">
         <v>6</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="21" t="s">
+    <row r="42" s="1" customFormat="1" spans="1:7">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9">
+      <c r="E42" s="6"/>
+      <c r="F42" s="7">
         <v>6</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="21" t="s">
+    <row r="43" s="1" customFormat="1" ht="66" spans="1:7">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9">
+      <c r="E43" s="6"/>
+      <c r="F43" s="7">
         <v>12</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="21" t="s">
+    <row r="44" s="1" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9">
+      <c r="E44" s="6"/>
+      <c r="F44" s="7">
         <v>6</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A45" s="12"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="22" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9">
+      <c r="E45" s="6"/>
+      <c r="F45" s="7">
         <v>2</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:7">
-      <c r="A46" s="12"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7">
         <v>6</v>
       </c>
-      <c r="G46" s="8"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:7">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="23" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9">
+      <c r="E47" s="6"/>
+      <c r="F47" s="7">
         <v>6</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:7">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="8" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7">
         <v>3</v>
       </c>
-      <c r="G48" s="8"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:7">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="8" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7">
         <v>3</v>
       </c>
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="8" t="s">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="8"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:7">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="G51" s="15" t="s">
+      <c r="E51" s="6"/>
+      <c r="G51" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="115.5" spans="1:7">
-      <c r="A52" s="7" t="s">
+    <row r="52" s="1" customFormat="1" ht="66" spans="1:7">
+      <c r="A52" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="9">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7">
         <v>3</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7">
         <v>3</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="24" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="15" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="8" t="s">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:7">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="15" t="s">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:7">
-      <c r="A57" s="20"/>
-      <c r="B57" s="15" t="s">
+    <row r="57" s="1" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="15" t="s">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:7">
-      <c r="A58" s="20"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="15" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:7">
-      <c r="A59" s="20"/>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="15" t="s">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A60" s="20"/>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="8" t="s">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:7">
-      <c r="A61" s="20"/>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="8"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:7">
-      <c r="A62" s="20"/>
-      <c r="B62" s="15" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="16" t="s">
+      <c r="C62" s="8"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="15" t="s">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A64" s="18"/>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="15"/>
+      <c r="B64" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="15" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:7">
-      <c r="A65" s="18"/>
-      <c r="B65" s="15" t="s">
+      <c r="A65" s="15"/>
+      <c r="B65" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="15" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:7">
-      <c r="A66" s="19"/>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="15" t="s">
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2924,10 +2944,6 @@
       <c r="A68" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
       <c r="F68" s="5"/>
     </row>
   </sheetData>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -1849,12 +1849,12 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="48.75" style="4" customWidth="1"/>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="商城模块" sheetId="1" r:id="rId1"/>
+    <sheet name="试用模块" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>系统</t>
   </si>
@@ -759,24 +759,135 @@
   <si>
     <t xml:space="preserve">注:600元/人/天费用  </t>
   </si>
+  <si>
+    <t>试用模块</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>头部公告</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>是否需要添加</t>
+  </si>
+  <si>
+    <t>幻灯片</t>
+  </si>
+  <si>
+    <t>展示幻灯片</t>
+  </si>
+  <si>
+    <t>对应幻灯片管理，前端布局</t>
+  </si>
+  <si>
+    <t>试用秀链接</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>前端布局</t>
+  </si>
+  <si>
+    <t>试用产品</t>
+  </si>
+  <si>
+    <t>产品展示</t>
+  </si>
+  <si>
+    <t>对应项目管理，前端布局</t>
+  </si>
+  <si>
+    <t>试用秀</t>
+  </si>
+  <si>
+    <t>试用展示</t>
+  </si>
+  <si>
+    <t>对应评测报告，前端布局</t>
+  </si>
+  <si>
+    <t>试用填写</t>
+  </si>
+  <si>
+    <t>填写，添加商品分类属性，样式</t>
+  </si>
+  <si>
+    <t>品牌馆</t>
+  </si>
+  <si>
+    <t>按品牌分类</t>
+  </si>
+  <si>
+    <t>添加商品品牌属性，前端布局</t>
+  </si>
+  <si>
+    <t>我的试用</t>
+  </si>
+  <si>
+    <t>对应我的申请</t>
+  </si>
+  <si>
+    <t>其它流程是否一致</t>
+  </si>
+  <si>
+    <t>找前端画前端界面，js动态效果做下拉加载等</t>
+  </si>
+  <si>
+    <t>内容订阅，添加品牌，推荐</t>
+  </si>
+  <si>
+    <t>阿里试用</t>
+  </si>
+  <si>
+    <t>https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1</t>
+  </si>
+  <si>
+    <t>https://h5.m.taobao.com/try/my.htm?spm=a1z0i.8295104.300.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -809,11 +920,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,9 +951,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,7 +960,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,53 +975,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +989,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,14 +1027,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -955,12 +1066,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -973,18 +1228,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -997,7 +1240,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,139 +1286,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1201,32 +1363,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,6 +1402,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1272,42 +1460,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1316,186 +1478,234 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1557,6 +1767,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408305</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="5762625"/>
+          <a:ext cx="5875655" cy="5685790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1848,1103 +2105,1103 @@
   <sheetPr/>
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="B1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="38" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="4.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="38" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="17" customFormat="1" spans="1:7">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="23">
         <v>12</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9" t="s">
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" s="17" customFormat="1" ht="409.5" spans="1:7">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="6" t="s">
+    <row r="4" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
+      <c r="E4" s="22"/>
+      <c r="F4" s="23">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="148.5" spans="1:7">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" s="17" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="99" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" s="17" customFormat="1" ht="99" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
+      <c r="E6" s="22"/>
+      <c r="F6" s="23">
         <v>6</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+    <row r="8" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23">
         <v>2</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9" t="s">
+    <row r="9" s="17" customFormat="1" spans="1:7">
+      <c r="A9" s="26"/>
+      <c r="B9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="23">
         <v>2</v>
       </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6" t="s">
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7">
+      <c r="E10" s="22"/>
+      <c r="F10" s="23">
         <v>2</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
+    <row r="11" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7">
+      <c r="E11" s="22"/>
+      <c r="F11" s="23">
         <v>2</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+    <row r="12" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23">
         <v>12</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" s="17" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A13" s="26"/>
+      <c r="B13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="23">
         <v>3</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7">
+      <c r="E14" s="22"/>
+      <c r="F14" s="23">
         <v>8</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="99" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6" t="s">
+    <row r="15" s="17" customFormat="1" ht="99" spans="1:7">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="23">
         <v>3</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23">
         <v>2</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A17" s="26"/>
+      <c r="B17" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="23">
         <v>2</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+    <row r="18" s="17" customFormat="1" spans="1:7">
+      <c r="A18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23">
         <v>6</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+    <row r="19" s="17" customFormat="1" spans="1:7">
+      <c r="A19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23">
         <v>8</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+    <row r="20" s="17" customFormat="1" spans="1:7">
+      <c r="A20" s="26"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23">
         <v>6</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14" t="s">
+    <row r="22" s="17" customFormat="1" ht="99" spans="1:7">
+      <c r="A22" s="26"/>
+      <c r="B22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="13" t="s">
+    <row r="23" s="17" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A23" s="26"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="13" t="s">
+    <row r="24" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A24" s="26"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15" t="s">
+    <row r="25" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A25" s="28"/>
+      <c r="B25" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A26" s="14" t="s">
+    <row r="26" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A26" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A27" s="31"/>
+      <c r="B27" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14" t="s">
+    <row r="28" s="17" customFormat="1" ht="99" spans="1:7">
+      <c r="A28" s="31"/>
+      <c r="B28" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14" t="s">
+    <row r="29" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A29" s="32"/>
+      <c r="B29" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A30" s="14" t="s">
+    <row r="30" s="17" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A30" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14" t="s">
+    <row r="31" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A31" s="31"/>
+      <c r="B31" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14" t="s">
+    <row r="32" s="17" customFormat="1" ht="132" spans="1:7">
+      <c r="A32" s="32"/>
+      <c r="B32" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A33" s="14" t="s">
+    <row r="33" s="18" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A33" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="7" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14" t="s">
+    <row r="34" s="18" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A34" s="31"/>
+      <c r="B34" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14" t="s">
+    <row r="35" s="18" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A35" s="32"/>
+      <c r="B35" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="7" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A36" s="14" t="s">
+    <row r="36" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A36" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="7" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14" t="s">
+    <row r="37" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A37" s="31"/>
+      <c r="B37" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="7" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14" t="s">
+    <row r="38" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A38" s="31"/>
+      <c r="B38" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="7" t="s">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14" t="s">
+    <row r="39" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A39" s="32"/>
+      <c r="B39" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="7" t="s">
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:7">
-      <c r="A40" s="9" t="s">
+    <row r="40" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A40" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7">
+      <c r="E40" s="22"/>
+      <c r="F40" s="23">
         <v>6</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="17" t="s">
+    <row r="41" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7">
+      <c r="E41" s="22"/>
+      <c r="F41" s="23">
         <v>6</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:7">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="17" t="s">
+    <row r="42" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7">
+      <c r="E42" s="22"/>
+      <c r="F42" s="23">
         <v>6</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="17" t="s">
+    <row r="43" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7">
+      <c r="E43" s="22"/>
+      <c r="F43" s="23">
         <v>12</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="17" t="s">
+    <row r="44" s="17" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7">
+      <c r="E44" s="22"/>
+      <c r="F44" s="23">
         <v>6</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="18" t="s">
+    <row r="45" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7">
+      <c r="E45" s="22"/>
+      <c r="F45" s="23">
         <v>2</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:7">
-      <c r="A46" s="10"/>
-      <c r="B46" s="9" t="s">
+    <row r="46" s="17" customFormat="1" spans="1:7">
+      <c r="A46" s="26"/>
+      <c r="B46" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23">
         <v>6</v>
       </c>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:7">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="12" t="s">
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" s="17" customFormat="1" spans="1:7">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7">
+      <c r="E47" s="22"/>
+      <c r="F47" s="23">
         <v>6</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:7">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="6" t="s">
+    <row r="48" s="17" customFormat="1" spans="1:7">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7">
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23">
         <v>3</v>
       </c>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:7">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="6" t="s">
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" s="17" customFormat="1" spans="1:7">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7">
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23">
         <v>3</v>
       </c>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="6" t="s">
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:7">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13" t="s">
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" s="17" customFormat="1" spans="1:7">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="G51" s="13" t="s">
+      <c r="E51" s="22"/>
+      <c r="G51" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A52" s="6" t="s">
+    <row r="52" s="17" customFormat="1" ht="115.5" spans="1:7">
+      <c r="A52" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7">
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23">
         <v>3</v>
       </c>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23">
         <v>3</v>
       </c>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A54" s="14" t="s">
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" s="17" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A54" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="9" t="s">
+      <c r="D54" s="25"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A55" s="13" t="s">
+    <row r="55" s="17" customFormat="1" ht="99" spans="1:7">
+      <c r="A55" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="13" t="s">
+      <c r="B55" s="22"/>
+      <c r="C55" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="6" t="s">
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:7">
-      <c r="A56" s="13" t="s">
+    <row r="56" s="17" customFormat="1" spans="1:7">
+      <c r="A56" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="13" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="17" customHeight="1" spans="1:7">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13" t="s">
+    <row r="57" s="17" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A57" s="29"/>
+      <c r="B57" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="13" t="s">
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:7">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13" t="s">
+    <row r="58" s="17" customFormat="1" spans="1:7">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="13" t="s">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:7">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13" t="s">
+    <row r="59" s="17" customFormat="1" spans="1:7">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="13" t="s">
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="29" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="66" spans="1:7">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13" t="s">
+    <row r="60" s="17" customFormat="1" ht="115.5" spans="1:7">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="6" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:7">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13" t="s">
+    <row r="61" s="17" customFormat="1" spans="1:7">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:7">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13" t="s">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" s="17" customFormat="1" spans="1:7">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="11" t="s">
+      <c r="C62" s="24"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A63" s="14" t="s">
+    <row r="63" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A63" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="13" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A64" s="15"/>
-      <c r="B64" s="13" t="s">
+    <row r="64" s="17" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A64" s="31"/>
+      <c r="B64" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="13" t="s">
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" spans="1:7">
-      <c r="A65" s="15"/>
-      <c r="B65" s="13" t="s">
+    <row r="65" s="17" customFormat="1" spans="1:7">
+      <c r="A65" s="31"/>
+      <c r="B65" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="13" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:7">
-      <c r="A66" s="16"/>
-      <c r="B66" s="13" t="s">
+    <row r="66" s="17" customFormat="1" spans="1:7">
+      <c r="A66" s="32"/>
+      <c r="B66" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="13" t="s">
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:6">
-      <c r="A68" s="3" t="s">
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" s="19" customFormat="1" spans="1:6">
+      <c r="A68" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="F68" s="5"/>
+      <c r="F68" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2978,16 +3235,236 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" ht="27" spans="1:6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" ht="27" spans="1:6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" ht="27" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="7:7">
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="7:7">
+      <c r="G16" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="7:7">
+      <c r="G17" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G17" r:id="rId2" display="https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1" tooltip="https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="商城模块" sheetId="1" r:id="rId1"/>
     <sheet name="试用模块" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="erp系统" sheetId="3" r:id="rId3"/>
+    <sheet name="cps系统" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>系统</t>
   </si>
@@ -727,9 +728,29 @@
     <t>积分各种兑换规则，积分+现金兑换等，用户不同等级积分兑换</t>
   </si>
   <si>
+    <t>系统目前有相应功能需测试
+2018-02-26 21:45:05 TODO debug4 runtime=0.048s ：来源:
+http://shop.rongec.cn/web/index.php?c=site&amp;a=entry&amp;m=ewei_shopv2&amp;do=web&amp;r=creditshop.goods.query&amp;keyword=%E6%95%B0%E7%A0%81
+------------
+Array:
+file : fetchall()  ;
+sql2 : SELECT id,title,thumb,marketprice,productprice,share_title,share_icon,description,minprice,costprice,total,content,hasoption
+              FROM `ims_ewei_shop_goods` WHERE 1  and status=1 and deleted=0 and uniacid='10' and type = 1 and groupstype = 0 
+                    and isdiscount = 0 and istime = 0 and  ifnull(bargain,0)=0 and ispresell = 0  AND (`title` LIKE '%数码%' OR `keywords` LIKE '%数码%') AND `type` != 10  order by createtime desc ;
+$params ==Array:
+:uniacid : 10 ;
+:keywords : %数码% ;</t>
+  </si>
+  <si>
+    <t>以下商城商品不能参加积分商城兑换活动：</t>
+  </si>
+  <si>
     <t>游戏</t>
   </si>
   <si>
+    <t>虚拟、促销、秒杀活动、砍价活动商品；以及参加拼团的商品。</t>
+  </si>
+  <si>
     <t>预售</t>
   </si>
   <si>
@@ -775,6 +796,9 @@
     <t>是否需要添加</t>
   </si>
   <si>
+    <t>功能性</t>
+  </si>
+  <si>
     <t>幻灯片</t>
   </si>
   <si>
@@ -848,6 +872,15 @@
   </si>
   <si>
     <t>https://h5.m.taobao.com/try/my.htm?spm=a1z0i.8295104.300.4</t>
+  </si>
+  <si>
+    <t>erp系统</t>
+  </si>
+  <si>
+    <t>商品库对接cps</t>
+  </si>
+  <si>
+    <t>cps系统</t>
   </si>
 </sst>
 </file>
@@ -855,12 +888,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +923,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -913,16 +953,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF843534"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFE55640"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,14 +978,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -958,24 +995,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,37 +1027,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,8 +1056,55 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,6 +1161,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1115,42 +1180,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,48 +1239,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1283,6 +1270,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,16 +1417,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,16 +1474,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1442,34 +1513,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1478,144 +1531,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1628,9 +1678,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1664,49 +1711,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1773,15 +1835,62 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15478125" y="45688250"/>
+          <a:ext cx="11523980" cy="5095240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>408305</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1799,7 +1908,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="5762625"/>
+          <a:off x="5638800" y="4391025"/>
           <a:ext cx="5875655" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2103,1105 +2212,1111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="B1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="20" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="38" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="4.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="45.25" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="15" customFormat="1" ht="30" spans="1:7">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A2" s="25" t="s">
+    <row r="2" s="16" customFormat="1" ht="66" spans="1:7">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="25">
         <v>12</v>
       </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" s="17" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A3" s="26"/>
-      <c r="B3" s="25" t="s">
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" s="16" customFormat="1" ht="409.5" spans="1:7">
+      <c r="A3" s="27"/>
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="22" t="s">
+    <row r="4" s="16" customFormat="1" ht="66" spans="1:7">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23">
+      <c r="E4" s="24"/>
+      <c r="F4" s="25">
         <v>8</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="148.5" spans="1:7">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="22" t="s">
+    <row r="5" s="16" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="99" spans="1:7">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="22" t="s">
+    <row r="6" s="16" customFormat="1" ht="99" spans="1:7">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23">
+      <c r="E6" s="24"/>
+      <c r="F6" s="25">
         <v>6</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="22" t="s">
+    <row r="7" s="16" customFormat="1" ht="66" spans="1:7">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25">
         <v>6</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
+    <row r="8" s="16" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25">
         <v>2</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="25" t="s">
+    <row r="9" s="16" customFormat="1" spans="1:7">
+      <c r="A9" s="27"/>
+      <c r="B9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="25">
         <v>2</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="22" t="s">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23">
+      <c r="E10" s="24"/>
+      <c r="F10" s="25">
         <v>2</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="22" t="s">
+    <row r="11" s="16" customFormat="1" ht="66" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23">
+      <c r="E11" s="24"/>
+      <c r="F11" s="25">
         <v>2</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
+    <row r="12" s="16" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25">
         <v>12</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="22" t="s">
+    <row r="13" s="16" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="25">
         <v>3</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A14" s="26"/>
-      <c r="B14" s="25" t="s">
+    <row r="14" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A14" s="27"/>
+      <c r="B14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23">
+      <c r="E14" s="24"/>
+      <c r="F14" s="25">
         <v>8</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" ht="99" spans="1:7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="22" t="s">
+    <row r="15" s="16" customFormat="1" ht="99" spans="1:7">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="25">
         <v>3</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+    <row r="16" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25">
         <v>2</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A17" s="26"/>
-      <c r="B17" s="22" t="s">
+    <row r="17" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="25">
         <v>2</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" spans="1:7">
-      <c r="A18" s="26"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
+    <row r="18" s="16" customFormat="1" spans="1:7">
+      <c r="A18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25">
         <v>6</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" spans="1:7">
-      <c r="A19" s="26"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22" t="s">
+    <row r="19" s="16" customFormat="1" spans="1:7">
+      <c r="A19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25">
         <v>8</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" spans="1:7">
-      <c r="A20" s="26"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22" t="s">
+    <row r="20" s="16" customFormat="1" spans="1:7">
+      <c r="A20" s="27"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25">
         <v>6</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
+    <row r="21" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" ht="99" spans="1:7">
-      <c r="A22" s="26"/>
-      <c r="B22" s="30" t="s">
+    <row r="22" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A22" s="27"/>
+      <c r="B22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A23" s="26"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="29" t="s">
+    <row r="23" s="16" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A24" s="26"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="29" t="s">
+    <row r="24" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A24" s="27"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A25" s="28"/>
-      <c r="B25" s="31" t="s">
+    <row r="25" s="16" customFormat="1" spans="1:7">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A26" s="30" t="s">
+    <row r="26" s="16" customFormat="1" ht="66" spans="1:7">
+      <c r="A26" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A27" s="31"/>
-      <c r="B27" s="30" t="s">
+    <row r="27" s="16" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A27" s="32"/>
+      <c r="B27" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" s="17" customFormat="1" ht="99" spans="1:7">
-      <c r="A28" s="31"/>
-      <c r="B28" s="30" t="s">
+    <row r="28" s="16" customFormat="1" ht="99" spans="1:7">
+      <c r="A28" s="32"/>
+      <c r="B28" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A29" s="32"/>
-      <c r="B29" s="30" t="s">
+    <row r="29" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A29" s="33"/>
+      <c r="B29" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" s="17" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A30" s="30" t="s">
+    <row r="30" s="16" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A30" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30" t="s">
+    <row r="31" s="16" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A31" s="32"/>
+      <c r="B31" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" s="17" customFormat="1" ht="132" spans="1:7">
-      <c r="A32" s="32"/>
-      <c r="B32" s="30" t="s">
+    <row r="32" s="16" customFormat="1" ht="132" spans="1:7">
+      <c r="A32" s="33"/>
+      <c r="B32" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" s="18" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A33" s="30" t="s">
+    <row r="33" s="17" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A33" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="23" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" s="18" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A34" s="31"/>
-      <c r="B34" s="30" t="s">
+    <row r="34" s="17" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A34" s="32"/>
+      <c r="B34" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="23" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" s="18" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A35" s="32"/>
-      <c r="B35" s="30" t="s">
+    <row r="35" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A35" s="33"/>
+      <c r="B35" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="23" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A36" s="30" t="s">
+    <row r="36" s="17" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A36" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="23" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30" t="s">
+    <row r="37" s="17" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A37" s="32"/>
+      <c r="B37" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="23" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30" t="s">
+    <row r="38" s="17" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A38" s="32"/>
+      <c r="B38" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="23" t="s">
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A39" s="32"/>
-      <c r="B39" s="30" t="s">
+    <row r="39" s="17" customFormat="1" spans="1:7">
+      <c r="A39" s="33"/>
+      <c r="B39" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="23" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A40" s="25" t="s">
+    <row r="40" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A40" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23">
+      <c r="E40" s="24"/>
+      <c r="F40" s="25">
         <v>6</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="33" t="s">
+    <row r="41" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23">
+      <c r="E41" s="24"/>
+      <c r="F41" s="25">
         <v>6</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="33" t="s">
+    <row r="42" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23">
+      <c r="E42" s="24"/>
+      <c r="F42" s="25">
         <v>6</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="33" t="s">
+    <row r="43" s="16" customFormat="1" ht="66" spans="1:7">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23">
+      <c r="E43" s="24"/>
+      <c r="F43" s="25">
         <v>12</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" s="17" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="33" t="s">
+    <row r="44" s="16" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23">
+      <c r="E44" s="24"/>
+      <c r="F44" s="25">
         <v>6</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="45" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A45" s="26"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="34" t="s">
+    <row r="45" s="16" customFormat="1" ht="33" spans="1:7">
+      <c r="A45" s="27"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23">
+      <c r="E45" s="24"/>
+      <c r="F45" s="25">
         <v>2</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" s="17" customFormat="1" spans="1:7">
-      <c r="A46" s="26"/>
-      <c r="B46" s="25" t="s">
+    <row r="46" s="16" customFormat="1" spans="1:7">
+      <c r="A46" s="27"/>
+      <c r="B46" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25">
         <v>6</v>
       </c>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" s="17" customFormat="1" spans="1:7">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="28" t="s">
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" s="16" customFormat="1" spans="1:7">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23">
+      <c r="E47" s="24"/>
+      <c r="F47" s="25">
         <v>6</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" s="17" customFormat="1" spans="1:7">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="22" t="s">
+    <row r="48" s="16" customFormat="1" spans="1:7">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25">
         <v>3</v>
       </c>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" s="17" customFormat="1" spans="1:7">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="22" t="s">
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" s="16" customFormat="1" spans="1:7">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25">
         <v>3</v>
       </c>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="22" t="s">
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" s="16" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" s="17" customFormat="1" spans="1:7">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" s="16" customFormat="1" spans="1:7">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="G51" s="29" t="s">
+      <c r="E51" s="24"/>
+      <c r="G51" s="30" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" s="17" customFormat="1" ht="115.5" spans="1:7">
-      <c r="A52" s="22" t="s">
+    <row r="52" s="16" customFormat="1" ht="115.5" spans="1:7">
+      <c r="A52" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25">
         <v>3</v>
       </c>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22" t="s">
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" s="16" customFormat="1" spans="1:7">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23">
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25">
         <v>3</v>
       </c>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" s="17" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A54" s="30" t="s">
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" s="16" customFormat="1" spans="1:7">
+      <c r="A54" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="30" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="25" t="s">
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" s="17" customFormat="1" ht="99" spans="1:7">
-      <c r="A55" s="29" t="s">
+    <row r="55" s="16" customFormat="1" spans="1:7">
+      <c r="A55" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="29" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="22" t="s">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" s="17" customFormat="1" spans="1:7">
-      <c r="A56" s="29" t="s">
+    <row r="56" s="16" customFormat="1" spans="1:7">
+      <c r="A56" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="29" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" s="17" customFormat="1" ht="17" customHeight="1" spans="1:7">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29" t="s">
+    <row r="57" s="16" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="29" t="s">
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="30" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" s="17" customFormat="1" spans="1:7">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29" t="s">
+    <row r="58" s="16" customFormat="1" spans="1:7">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="29" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" s="17" customFormat="1" spans="1:7">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29" t="s">
+    <row r="59" s="16" customFormat="1" spans="1:7">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="29" t="s">
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" s="17" customFormat="1" ht="115.5" spans="1:7">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29" t="s">
+    <row r="60" s="16" customFormat="1" ht="409.5" spans="1:8">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="22" t="s">
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" s="16" customFormat="1" ht="85.5" spans="1:8">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" s="16" customFormat="1" spans="1:7">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" s="16" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A63" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" s="17" customFormat="1" spans="1:7">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" s="17" customFormat="1" spans="1:7">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A63" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="29" t="s">
+    <row r="64" s="16" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A64" s="32"/>
+      <c r="B64" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" s="17" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A64" s="31"/>
-      <c r="B64" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="29" t="s">
+    <row r="65" s="16" customFormat="1" spans="1:7">
+      <c r="A65" s="32"/>
+      <c r="B65" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" s="17" customFormat="1" spans="1:7">
-      <c r="A65" s="31"/>
-      <c r="B65" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="29" t="s">
+    <row r="66" s="16" customFormat="1" spans="1:7">
+      <c r="A66" s="33"/>
+      <c r="B66" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" s="17" customFormat="1" spans="1:7">
-      <c r="A66" s="32"/>
-      <c r="B66" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="20"/>
-    </row>
-    <row r="68" s="19" customFormat="1" spans="1:6">
-      <c r="A68" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F68" s="21"/>
+      <c r="G67" s="19"/>
+    </row>
+    <row r="68" s="18" customFormat="1" spans="1:6">
+      <c r="A68" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3228,17 +3343,18 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3247,210 +3363,226 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="6">
+      <c r="B3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="4" ht="27" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.5</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="6"/>
     </row>
     <row r="6" ht="27" spans="1:6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="5">
         <v>5</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="7" ht="27" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="A7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="8" ht="27" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="9" ht="27" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="A9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="7:7">
       <c r="G15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="7:7">
-      <c r="G16" s="15" t="s">
-        <v>182</v>
+      <c r="G16" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="7:7">
-      <c r="G17" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7">
-      <c r="G28" t="s">
-        <v>184</v>
+      <c r="G17" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3471,15 +3603,233 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商城模块" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>系统</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>目前系统暂未此部分功能</t>
+  </si>
+  <si>
+    <t>后台完成</t>
   </si>
   <si>
     <t>商品分类管理</t>
@@ -802,7 +805,7 @@
     <t>幻灯片</t>
   </si>
   <si>
-    <t>展示幻灯片</t>
+    <t>展示幻灯片（参考招行掌上商城，小些）（链接外用加（免费试用/付邮领用/我的试用））</t>
   </si>
   <si>
     <t>对应幻灯片管理，前端布局</t>
@@ -853,7 +856,10 @@
     <t>我的试用</t>
   </si>
   <si>
-    <t>对应我的申请</t>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>对应我的申请(试用、购买)</t>
   </si>
   <si>
     <t>其它流程是否一致</t>
@@ -872,6 +878,30 @@
   </si>
   <si>
     <t>https://h5.m.taobao.com/try/my.htm?spm=a1z0i.8295104.300.4</t>
+  </si>
+  <si>
+    <t>首页布局</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>导航</t>
+  </si>
+  <si>
+    <t>（免费/付邮/往期/我的/）</t>
+  </si>
+  <si>
+    <t>试用商品列表</t>
+  </si>
+  <si>
+    <t>横的列表</t>
+  </si>
+  <si>
+    <t>优化推荐</t>
+  </si>
+  <si>
+    <t>四个方块的商品</t>
   </si>
   <si>
     <t>erp系统</t>
@@ -890,8 +920,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -973,11 +1003,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1002,9 +1032,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,45 +1054,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1071,6 +1078,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1087,6 +1117,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1096,15 +1134,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,19 +1191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,25 +1215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1239,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,7 +1275,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,85 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,9 +1463,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,17 +1520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,42 +1543,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1531,137 +1561,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1695,6 +1725,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1861,8 +1894,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15478125" y="45688250"/>
-          <a:ext cx="11523980" cy="5095240"/>
+          <a:off x="15478125" y="39897050"/>
+          <a:ext cx="11523980" cy="5304790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1908,7 +1941,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="4391025"/>
+          <a:off x="5638800" y="5762625"/>
           <a:ext cx="5875655" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1918,6 +1951,120 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>562610</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="813525351165510073"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="5991225"/>
+          <a:ext cx="2591435" cy="4001135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>305435</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="327590344626373373"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="523875"/>
+          <a:ext cx="2353310" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>648335</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="188133624818089864"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="11820525"/>
+          <a:ext cx="2648585" cy="4477385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2214,1109 +2361,1111 @@
   <sheetPr/>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="20" customWidth="1"/>
-    <col min="7" max="7" width="45.25" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="4.25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="21" customWidth="1"/>
+    <col min="7" max="7" width="45.25" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="30" spans="1:7">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="16" customFormat="1" ht="30" spans="1:7">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="66" spans="1:7">
-      <c r="A2" s="23" t="s">
+    <row r="2" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="26">
         <v>12</v>
       </c>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" s="16" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="23" t="s">
+      <c r="G2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="s">
+    </row>
+    <row r="3" s="17" customFormat="1" ht="379.5" spans="1:7">
+      <c r="A3" s="28"/>
+      <c r="B3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" s="16" customFormat="1" ht="66" spans="1:7">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24" t="s">
+    </row>
+    <row r="4" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25">
+      <c r="D4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26">
         <v>8</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" s="16" customFormat="1" ht="148.5" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24" t="s">
+      <c r="G4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="24" t="s">
+    </row>
+    <row r="5" s="17" customFormat="1" ht="132" spans="1:7">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" s="16" customFormat="1" ht="99" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24" t="s">
+      <c r="G5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="24" t="s">
+    </row>
+    <row r="6" s="17" customFormat="1" ht="99" spans="1:7">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25">
+      <c r="D6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26">
         <v>6</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" s="16" customFormat="1" ht="66" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24" t="s">
+      <c r="G6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25">
+    </row>
+    <row r="7" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26">
         <v>6</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" s="16" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30" t="s">
+      <c r="G7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25">
+    </row>
+    <row r="8" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26">
         <v>2</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="16" customFormat="1" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="23" t="s">
+      <c r="G8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="24" t="s">
+    </row>
+    <row r="9" s="17" customFormat="1" spans="1:7">
+      <c r="A9" s="28"/>
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="25">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="26">
         <v>2</v>
       </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="24" t="s">
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26">
+        <v>2</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26">
+        <v>12</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25">
+    </row>
+    <row r="13" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="26">
+        <v>3</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" s="17" customFormat="1" spans="1:7">
+      <c r="A14" s="28"/>
+      <c r="B14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26">
+        <v>8</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="26">
+        <v>3</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26">
         <v>2</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" s="16" customFormat="1" ht="66" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25">
+      <c r="G16" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A17" s="28"/>
+      <c r="B17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="26">
         <v>2</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" s="16" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25">
+      <c r="G17" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" s="17" customFormat="1" spans="1:7">
+      <c r="A18" s="28"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26">
+        <v>6</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" s="17" customFormat="1" spans="1:7">
+      <c r="A19" s="28"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26">
+        <v>8</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" s="17" customFormat="1" spans="1:7">
+      <c r="A20" s="28"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26">
+        <v>6</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A22" s="28"/>
+      <c r="B22" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" s="17" customFormat="1" spans="1:7">
+      <c r="A24" s="28"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A25" s="30"/>
+      <c r="B25" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A27" s="33"/>
+      <c r="B27" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A28" s="33"/>
+      <c r="B28" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" s="17" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A29" s="34"/>
+      <c r="B29" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A30" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A31" s="33"/>
+      <c r="B31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A32" s="34"/>
+      <c r="B32" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" s="18" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A33" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" s="18" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A34" s="33"/>
+      <c r="B34" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" s="18" customFormat="1" ht="99" spans="1:7">
+      <c r="A35" s="34"/>
+      <c r="B35" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A36" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A37" s="33"/>
+      <c r="B37" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A38" s="33"/>
+      <c r="B38" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" s="18" customFormat="1" ht="33" spans="1:7">
+      <c r="A39" s="34"/>
+      <c r="B39" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" s="17" customFormat="1" spans="1:7">
+      <c r="A40" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="26">
+        <v>6</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26">
+        <v>6</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" s="17" customFormat="1" spans="1:7">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26">
+        <v>6</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" s="17" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26">
         <v>12</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" s="16" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="G43" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26">
+        <v>6</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" s="17" customFormat="1" spans="1:7">
+      <c r="A45" s="28"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26">
+        <v>2</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" s="17" customFormat="1" spans="1:7">
+      <c r="A46" s="28"/>
+      <c r="B46" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26">
+        <v>6</v>
+      </c>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" s="17" customFormat="1" spans="1:7">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26">
+        <v>6</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" s="17" customFormat="1" spans="1:7">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26">
         <v>3</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25">
-        <v>8</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" s="16" customFormat="1" ht="99" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="25">
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" s="17" customFormat="1" spans="1:7">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26">
         <v>3</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25">
-        <v>2</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="25">
-        <v>2</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" s="16" customFormat="1" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25">
-        <v>6</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" s="16" customFormat="1" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25">
-        <v>8</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" s="16" customFormat="1" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25">
-        <v>6</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" s="16" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" s="16" customFormat="1" spans="1:7">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" s="16" customFormat="1" ht="66" spans="1:7">
-      <c r="A26" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" s="16" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A27" s="32"/>
-      <c r="B27" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" s="16" customFormat="1" ht="99" spans="1:7">
-      <c r="A28" s="32"/>
-      <c r="B28" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" s="16" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A30" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" s="16" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A31" s="32"/>
-      <c r="B31" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" s="16" customFormat="1" ht="132" spans="1:7">
-      <c r="A32" s="33"/>
-      <c r="B32" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" s="17" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A33" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" s="17" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A34" s="32"/>
-      <c r="B34" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A35" s="33"/>
-      <c r="B35" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" s="17" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A36" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" s="17" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" s="17" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A38" s="32"/>
-      <c r="B38" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" s="17" customFormat="1" spans="1:7">
-      <c r="A39" s="33"/>
-      <c r="B39" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A40" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25">
-        <v>6</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25">
-        <v>6</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25">
-        <v>6</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" s="16" customFormat="1" ht="66" spans="1:7">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25">
-        <v>12</v>
-      </c>
-      <c r="G43" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" s="16" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25">
-        <v>6</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" s="16" customFormat="1" ht="33" spans="1:7">
-      <c r="A45" s="27"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25">
-        <v>2</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" s="16" customFormat="1" spans="1:7">
-      <c r="A46" s="27"/>
-      <c r="B46" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25">
-        <v>6</v>
-      </c>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" s="16" customFormat="1" spans="1:7">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25">
-        <v>6</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" s="16" customFormat="1" spans="1:7">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25">
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" s="17" customFormat="1" spans="1:7">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" s="17" customFormat="1" spans="1:7">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="G51" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A52" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26">
         <v>3</v>
       </c>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" s="16" customFormat="1" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25">
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26">
         <v>3</v>
       </c>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" s="16" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" s="16" customFormat="1" spans="1:7">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="G51" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" s="16" customFormat="1" ht="115.5" spans="1:7">
-      <c r="A52" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25">
-        <v>3</v>
-      </c>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" s="16" customFormat="1" spans="1:7">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25">
-        <v>3</v>
-      </c>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" s="16" customFormat="1" spans="1:7">
-      <c r="A54" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="31" t="s">
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A54" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" s="16" customFormat="1" spans="1:7">
-      <c r="A55" s="30" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="30" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A55" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" s="16" customFormat="1" spans="1:7">
-      <c r="A56" s="30" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" s="17" customFormat="1" spans="1:7">
+      <c r="A56" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="30" t="s">
+      <c r="B56" s="31" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" s="16" customFormat="1" ht="17" customHeight="1" spans="1:7">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="30" t="s">
+    </row>
+    <row r="57" s="17" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" s="16" customFormat="1" spans="1:7">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="30" t="s">
+    </row>
+    <row r="58" s="17" customFormat="1" spans="1:7">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="59" s="16" customFormat="1" spans="1:7">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30" t="s">
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="30" t="s">
+    </row>
+    <row r="59" s="17" customFormat="1" spans="1:7">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="60" s="16" customFormat="1" ht="409.5" spans="1:8">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="30" t="s">
+    </row>
+    <row r="60" s="17" customFormat="1" ht="396" spans="1:8">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="24" t="s">
+      <c r="C60" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="61" s="16" customFormat="1" ht="85.5" spans="1:8">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30" t="s">
+      <c r="H60" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="37" t="s">
+    </row>
+    <row r="61" s="17" customFormat="1" ht="85.5" spans="1:8">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" s="16" customFormat="1" spans="1:7">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30" t="s">
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="28" t="s">
+    </row>
+    <row r="62" s="17" customFormat="1" spans="1:7">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="63" s="16" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A63" s="31" t="s">
+      <c r="C62" s="27"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="30" t="s">
+    </row>
+    <row r="63" s="17" customFormat="1" ht="66" spans="1:7">
+      <c r="A63" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" s="16" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A64" s="32"/>
-      <c r="B64" s="30" t="s">
+      <c r="B63" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A64" s="33"/>
+      <c r="B64" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" s="16" customFormat="1" spans="1:7">
-      <c r="A65" s="32"/>
-      <c r="B65" s="30" t="s">
+      <c r="C64" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" s="16" customFormat="1" spans="1:7">
-      <c r="A66" s="33"/>
-      <c r="B66" s="30" t="s">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" s="17" customFormat="1" ht="33" spans="1:7">
+      <c r="A65" s="33"/>
+      <c r="B65" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" s="17" customFormat="1" spans="1:7">
+      <c r="A66" s="34"/>
+      <c r="B66" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="30" t="s">
-        <v>34</v>
+      <c r="C66" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" s="18" customFormat="1" spans="1:6">
-      <c r="A68" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F68" s="20"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" s="19" customFormat="1" spans="1:6">
+      <c r="A68" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3351,13 +3500,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -3369,7 +3518,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3399,190 +3548,222 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:6">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>164</v>
+      <c r="B4" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E4" s="5">
         <v>0.5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E5" s="5">
         <v>0.5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" s="7">
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E9" s="9">
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:6">
       <c r="A10" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11">
         <v>2</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="7:7">
       <c r="G15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="7:7">
-      <c r="G16" s="13" t="s">
-        <v>186</v>
+      <c r="G16" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="7:7">
-      <c r="G17" s="14" t="s">
-        <v>187</v>
+      <c r="G17" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9">
+      <c r="H57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10">
+      <c r="I58" t="s">
+        <v>193</v>
+      </c>
+      <c r="J58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10">
+      <c r="I59" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10">
+      <c r="I60" t="s">
+        <v>197</v>
+      </c>
+      <c r="J60" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3606,14 +3787,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3643,7 +3824,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3724,14 +3905,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19095" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商城模块" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
   <si>
     <t>系统</t>
   </si>
@@ -844,6 +844,9 @@
     <t>填写，添加商品分类属性，样式</t>
   </si>
   <si>
+    <t>功能性,后台商品分类属性完善</t>
+  </si>
+  <si>
     <t>品牌馆</t>
   </si>
   <si>
@@ -851,6 +854,9 @@
   </si>
   <si>
     <t>添加商品品牌属性，前端布局</t>
+  </si>
+  <si>
+    <t>功能性,后台商品品牌属完善</t>
   </si>
   <si>
     <t>我的试用</t>
@@ -918,10 +924,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1003,9 +1009,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,84 +1070,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,16 +1087,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,7 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1209,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,13 +1299,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,31 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,55 +1347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,37 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,28 +1452,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,34 +1506,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1530,16 +1527,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1549,10 +1555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1561,133 +1567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1941,7 +1947,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="5762625"/>
+          <a:off x="5638800" y="6619875"/>
           <a:ext cx="5875655" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1983,7 +1989,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="5991225"/>
+          <a:off x="3000375" y="6848475"/>
           <a:ext cx="2591435" cy="4001135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2059,7 +2065,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="11820525"/>
+          <a:off x="3619500" y="12677775"/>
           <a:ext cx="2648585" cy="4477385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3502,8 +3508,8 @@
   <sheetPr/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3640,7 +3646,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:6">
+    <row r="8" ht="67.5" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>177</v>
@@ -3655,38 +3661,38 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:6">
       <c r="A9" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E9" s="9">
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:6">
       <c r="A10" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11">
@@ -3706,64 +3712,64 @@
     </row>
     <row r="13" spans="7:7">
       <c r="G13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="7:7">
       <c r="G15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="7:7">
       <c r="G16" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="7:7">
       <c r="G17" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="8:9">
       <c r="H57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="9:10">
       <c r="I58" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J58" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="9:10">
       <c r="I59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J59" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="9:10">
       <c r="I60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +3800,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3824,7 +3830,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3912,7 +3918,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="商城模块" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>系统</t>
   </si>
@@ -904,10 +904,13 @@
     <t>横的列表</t>
   </si>
   <si>
-    <t>优化推荐</t>
+    <t>热门推荐（属性）ishot</t>
   </si>
   <si>
     <t>四个方块的商品</t>
+  </si>
+  <si>
+    <t>邮费</t>
   </si>
   <si>
     <t>erp系统</t>
@@ -954,7 +957,7 @@
     <font>
       <u/>
       <sz val="10.5"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1947,8 +1950,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="6619875"/>
-          <a:ext cx="5875655" cy="5685790"/>
+          <a:off x="5638800" y="6600825"/>
+          <a:ext cx="6932930" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,7 +1992,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="6848475"/>
+          <a:off x="3000375" y="6829425"/>
           <a:ext cx="2591435" cy="4001135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2007,8 +2010,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>305435</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1677035</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
@@ -2065,7 +2068,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="12677775"/>
+          <a:off x="3619500" y="12658725"/>
           <a:ext cx="2648585" cy="4477385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3506,10 +3509,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3520,6 +3523,7 @@
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3725,12 +3729,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="7:7">
+    <row r="16" spans="7:7">
       <c r="G16" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="7:7">
+    <row r="17" spans="7:7">
       <c r="G17" s="15" t="s">
         <v>191</v>
       </c>
@@ -3770,6 +3774,11 @@
       </c>
       <c r="J60" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3800,7 +3809,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3830,7 +3839,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3918,7 +3927,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>系统</t>
   </si>
@@ -827,6 +827,24 @@
   </si>
   <si>
     <t>对应项目管理，前端布局</t>
+  </si>
+  <si>
+    <t>免邮/付邮</t>
+  </si>
+  <si>
+    <t>免邮展示</t>
+  </si>
+  <si>
+    <t>添加邮费字段，结算时加上</t>
+  </si>
+  <si>
+    <t>往期</t>
+  </si>
+  <si>
+    <t>往期展示</t>
+  </si>
+  <si>
+    <t>过期商品展示</t>
   </si>
   <si>
     <t>试用秀</t>
@@ -1149,7 +1167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1189,6 +1207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,149 +1582,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1737,6 +1761,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1926,13 +1956,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>408305</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1950,7 +1980,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="6600825"/>
+          <a:off x="5638800" y="7115175"/>
           <a:ext cx="6932930" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1968,13 +1998,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>562610</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1992,7 +2022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="6829425"/>
+          <a:off x="3000375" y="7343775"/>
           <a:ext cx="2591435" cy="4001135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2044,13 +2074,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>648335</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2068,7 +2098,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="12658725"/>
+          <a:off x="3619500" y="13173075"/>
           <a:ext cx="2648585" cy="4477385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2376,1105 +2406,1105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="21" customWidth="1"/>
-    <col min="7" max="7" width="45.25" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="4.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="23" customWidth="1"/>
+    <col min="7" max="7" width="45.25" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="30" spans="1:7">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="18" customFormat="1" ht="30" spans="1:7">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A2" s="24" t="s">
+    <row r="2" s="19" customFormat="1" ht="66" spans="1:7">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="28">
         <v>12</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" ht="379.5" spans="1:7">
-      <c r="A3" s="28"/>
-      <c r="B3" s="24" t="s">
+    <row r="3" s="19" customFormat="1" ht="379.5" spans="1:7">
+      <c r="A3" s="30"/>
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="25" t="s">
+    <row r="4" s="19" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
         <v>8</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="132" spans="1:7">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25" t="s">
+    <row r="5" s="19" customFormat="1" ht="132" spans="1:7">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="99" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25" t="s">
+    <row r="6" s="19" customFormat="1" ht="99" spans="1:7">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
         <v>6</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="25" t="s">
+    <row r="7" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28">
         <v>6</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31" t="s">
+    <row r="8" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28">
         <v>2</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="1" spans="1:7">
-      <c r="A9" s="28"/>
-      <c r="B9" s="24" t="s">
+    <row r="9" s="19" customFormat="1" spans="1:7">
+      <c r="A9" s="30"/>
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="28">
         <v>2</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="25" t="s">
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26">
+      <c r="E10" s="27"/>
+      <c r="F10" s="28">
         <v>2</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="25" t="s">
+    <row r="11" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26">
+      <c r="E11" s="27"/>
+      <c r="F11" s="28">
         <v>2</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
+    <row r="12" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28">
         <v>12</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25" t="s">
+    <row r="13" s="19" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A13" s="30"/>
+      <c r="B13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="28">
         <v>3</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" spans="1:7">
-      <c r="A14" s="28"/>
-      <c r="B14" s="24" t="s">
+    <row r="14" s="19" customFormat="1" spans="1:7">
+      <c r="A14" s="30"/>
+      <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26">
+      <c r="E14" s="27"/>
+      <c r="F14" s="28">
         <v>8</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="25" t="s">
+    <row r="15" s="19" customFormat="1" ht="66" spans="1:7">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="28">
         <v>3</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
+    <row r="16" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28">
         <v>2</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25" t="s">
+    <row r="17" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A17" s="30"/>
+      <c r="B17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="28">
         <v>2</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" spans="1:7">
-      <c r="A18" s="28"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25" t="s">
+    <row r="18" s="19" customFormat="1" spans="1:7">
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28">
         <v>6</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
+    <row r="19" s="19" customFormat="1" spans="1:7">
+      <c r="A19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28">
         <v>8</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
+    <row r="20" s="19" customFormat="1" spans="1:7">
+      <c r="A20" s="30"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28">
         <v>6</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29" t="s">
+    <row r="21" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A22" s="28"/>
-      <c r="B22" s="32" t="s">
+    <row r="22" s="19" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A22" s="30"/>
+      <c r="B22" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A23" s="28"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="31" t="s">
+    <row r="23" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A23" s="30"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" spans="1:7">
-      <c r="A24" s="28"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="31" t="s">
+    <row r="24" s="19" customFormat="1" spans="1:7">
+      <c r="A24" s="30"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="33" t="s">
+    <row r="25" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A25" s="32"/>
+      <c r="B25" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A26" s="32" t="s">
+    <row r="26" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A26" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="32" t="s">
+    <row r="27" s="19" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A27" s="35"/>
+      <c r="B27" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="32" t="s">
+    <row r="28" s="19" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A28" s="35"/>
+      <c r="B28" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" s="17" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="32" t="s">
+    <row r="29" s="19" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A29" s="36"/>
+      <c r="B29" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A30" s="32" t="s">
+    <row r="30" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A30" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32" t="s">
+    <row r="31" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A32" s="34"/>
-      <c r="B32" s="32" t="s">
+    <row r="32" s="19" customFormat="1" ht="66" spans="1:7">
+      <c r="A32" s="36"/>
+      <c r="B32" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" s="18" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A33" s="32" t="s">
+    <row r="33" s="20" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A33" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="26" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" s="18" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A34" s="33"/>
-      <c r="B34" s="32" t="s">
+    <row r="34" s="20" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A34" s="35"/>
+      <c r="B34" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="26" t="s">
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" s="18" customFormat="1" ht="99" spans="1:7">
-      <c r="A35" s="34"/>
-      <c r="B35" s="32" t="s">
+    <row r="35" s="20" customFormat="1" ht="99" spans="1:7">
+      <c r="A35" s="36"/>
+      <c r="B35" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="26" t="s">
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A36" s="32" t="s">
+    <row r="36" s="20" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A36" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="26" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A37" s="33"/>
-      <c r="B37" s="32" t="s">
+    <row r="37" s="20" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A37" s="35"/>
+      <c r="B37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="26" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" s="18" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A38" s="33"/>
-      <c r="B38" s="32" t="s">
+    <row r="38" s="20" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A38" s="35"/>
+      <c r="B38" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="26" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" s="18" customFormat="1" ht="33" spans="1:7">
-      <c r="A39" s="34"/>
-      <c r="B39" s="32" t="s">
+    <row r="39" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A39" s="36"/>
+      <c r="B39" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="26" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" spans="1:7">
-      <c r="A40" s="24" t="s">
+    <row r="40" s="19" customFormat="1" spans="1:7">
+      <c r="A40" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26">
+      <c r="E40" s="27"/>
+      <c r="F40" s="28">
         <v>6</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="35" t="s">
+    <row r="41" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26">
+      <c r="E41" s="27"/>
+      <c r="F41" s="28">
         <v>6</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" s="17" customFormat="1" spans="1:7">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="35" t="s">
+    <row r="42" s="19" customFormat="1" spans="1:7">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26">
+      <c r="E42" s="27"/>
+      <c r="F42" s="28">
         <v>6</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" s="17" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="35" t="s">
+    <row r="43" s="19" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26">
+      <c r="E43" s="27"/>
+      <c r="F43" s="28">
         <v>12</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="35" t="s">
+    <row r="44" s="19" customFormat="1" ht="66" spans="1:7">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26">
+      <c r="E44" s="27"/>
+      <c r="F44" s="28">
         <v>6</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" s="17" customFormat="1" spans="1:7">
-      <c r="A45" s="28"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="36" t="s">
+    <row r="45" s="19" customFormat="1" spans="1:7">
+      <c r="A45" s="30"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26">
+      <c r="E45" s="27"/>
+      <c r="F45" s="28">
         <v>2</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" s="17" customFormat="1" spans="1:7">
-      <c r="A46" s="28"/>
-      <c r="B46" s="24" t="s">
+    <row r="46" s="19" customFormat="1" spans="1:7">
+      <c r="A46" s="30"/>
+      <c r="B46" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28">
         <v>6</v>
       </c>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" s="17" customFormat="1" spans="1:7">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="30" t="s">
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" s="19" customFormat="1" spans="1:7">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26">
+      <c r="E47" s="27"/>
+      <c r="F47" s="28">
         <v>6</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" s="17" customFormat="1" spans="1:7">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="25" t="s">
+    <row r="48" s="19" customFormat="1" spans="1:7">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28">
         <v>3</v>
       </c>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" s="17" customFormat="1" spans="1:7">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="25" t="s">
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" s="19" customFormat="1" spans="1:7">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26">
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28">
         <v>3</v>
       </c>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="50" s="17" customFormat="1" spans="1:7">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="25" t="s">
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" s="19" customFormat="1" spans="1:7">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="25"/>
-    </row>
-    <row r="51" s="17" customFormat="1" spans="1:7">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31" t="s">
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" s="19" customFormat="1" spans="1:7">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="G51" s="31" t="s">
+      <c r="E51" s="27"/>
+      <c r="G51" s="33" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A52" s="25" t="s">
+    <row r="52" s="19" customFormat="1" ht="66" spans="1:7">
+      <c r="A52" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26">
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28">
         <v>3</v>
       </c>
-      <c r="G52" s="25"/>
-    </row>
-    <row r="53" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25" t="s">
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26">
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28">
         <v>3</v>
       </c>
-      <c r="G53" s="25"/>
-    </row>
-    <row r="54" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A54" s="32" t="s">
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" s="19" customFormat="1" ht="66" spans="1:7">
+      <c r="A54" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="32" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="24" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A55" s="31" t="s">
+    <row r="55" s="19" customFormat="1" ht="66" spans="1:7">
+      <c r="A55" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="31" t="s">
+      <c r="B55" s="27"/>
+      <c r="C55" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="25" t="s">
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" s="17" customFormat="1" spans="1:7">
-      <c r="A56" s="31" t="s">
+    <row r="56" s="19" customFormat="1" spans="1:7">
+      <c r="A56" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="31" t="s">
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" s="17" customFormat="1" ht="17" customHeight="1" spans="1:7">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31" t="s">
+    <row r="57" s="19" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="31" t="s">
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" s="17" customFormat="1" spans="1:7">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31" t="s">
+    <row r="58" s="19" customFormat="1" spans="1:7">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="31" t="s">
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" s="17" customFormat="1" spans="1:7">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31" t="s">
+    <row r="59" s="19" customFormat="1" spans="1:7">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="31" t="s">
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" s="17" customFormat="1" ht="396" spans="1:8">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31" t="s">
+    <row r="60" s="19" customFormat="1" ht="396" spans="1:8">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="25" t="s">
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="39" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" s="17" customFormat="1" ht="85.5" spans="1:8">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31" t="s">
+    <row r="61" s="19" customFormat="1" ht="85.5" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="38" t="s">
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="40" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" s="17" customFormat="1" spans="1:7">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31" t="s">
+    <row r="62" s="19" customFormat="1" spans="1:7">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="29" t="s">
+      <c r="C62" s="29"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" s="17" customFormat="1" ht="66" spans="1:7">
-      <c r="A63" s="32" t="s">
+    <row r="63" s="19" customFormat="1" ht="66" spans="1:7">
+      <c r="A63" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="31" t="s">
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A64" s="33"/>
-      <c r="B64" s="31" t="s">
+    <row r="64" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A64" s="35"/>
+      <c r="B64" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="31" t="s">
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" s="17" customFormat="1" ht="33" spans="1:7">
-      <c r="A65" s="33"/>
-      <c r="B65" s="31" t="s">
+    <row r="65" s="19" customFormat="1" ht="33" spans="1:7">
+      <c r="A65" s="35"/>
+      <c r="B65" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="31" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" s="17" customFormat="1" spans="1:7">
-      <c r="A66" s="34"/>
-      <c r="B66" s="31" t="s">
+    <row r="66" s="19" customFormat="1" spans="1:7">
+      <c r="A66" s="36"/>
+      <c r="B66" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="31" t="s">
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="20"/>
-    </row>
-    <row r="68" s="19" customFormat="1" spans="1:6">
-      <c r="A68" s="19" t="s">
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" s="21" customFormat="1" spans="1:6">
+      <c r="A68" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="F68" s="21"/>
+      <c r="F68" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3509,10 +3539,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3631,164 +3661,200 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" ht="67.5" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="7">
+      <c r="D8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="F10" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="14">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:6">
-      <c r="A10" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11">
+      <c r="F11" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F12" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="13" spans="7:7">
-      <c r="G13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="7:7">
+    <row r="13" spans="1:6">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="15" spans="7:7">
       <c r="G15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="8:9">
-      <c r="H57" t="s">
-        <v>193</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="G16" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="9:10">
-      <c r="I58" t="s">
+    <row r="17" ht="14.25" spans="7:7">
+      <c r="G17" t="s">
         <v>195</v>
       </c>
-      <c r="J58" t="s">
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="9:10">
+    <row r="19" spans="7:7">
+      <c r="G19" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9">
+      <c r="H59" t="s">
+        <v>199</v>
+      </c>
       <c r="I59" t="s">
-        <v>197</v>
-      </c>
-      <c r="J59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="9:10">
       <c r="I60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="8:8">
-      <c r="H62" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10">
+      <c r="I61" t="s">
+        <v>203</v>
+      </c>
+      <c r="J61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10">
+      <c r="I62" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G17" r:id="rId2" display="https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1" tooltip="https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1"/>
+    <hyperlink ref="G19" r:id="rId2" display="https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1" tooltip="https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3809,7 +3875,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3839,7 +3905,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3927,7 +3993,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -946,9 +946,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1145,8 +1145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,9 +1160,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,18 +1224,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1248,13 +1236,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,19 +1272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,7 +1302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,13 +1332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,13 +1344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,7 +1368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,13 +1392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,10 +1582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,115 +1594,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1711,13 +1711,13 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1980,7 +1980,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="7115175"/>
+          <a:off x="5638800" y="7134225"/>
           <a:ext cx="6932930" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2022,7 +2022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="7343775"/>
+          <a:off x="3000375" y="7362825"/>
           <a:ext cx="2591435" cy="4001135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2098,7 +2098,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="13173075"/>
+          <a:off x="3619500" y="13192125"/>
           <a:ext cx="2648585" cy="4477385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2400,7 +2400,7 @@
   <sheetPr/>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3541,8 +3541,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3795,12 +3795,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" ht="14.25" spans="7:7">
       <c r="G18" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" ht="14.25" spans="7:7">
       <c r="G19" s="17" t="s">
         <v>197</v>
       </c>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
   <si>
     <t>系统</t>
   </si>
@@ -787,6 +787,9 @@
     <t>试用模块</t>
   </si>
   <si>
+    <t>完成度（%）</t>
+  </si>
+  <si>
     <t>首页</t>
   </si>
   <si>
@@ -799,91 +802,103 @@
     <t>是否需要添加</t>
   </si>
   <si>
+    <t>功能性,完成</t>
+  </si>
+  <si>
+    <t>幻灯片</t>
+  </si>
+  <si>
+    <t>展示幻灯片（参考招行掌上商城，小些）（链接外用加（免费试用/付邮领用/我的试用））</t>
+  </si>
+  <si>
+    <t>对应幻灯片管理，前端布局</t>
+  </si>
+  <si>
+    <t>试用秀链接</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>前端布局</t>
+  </si>
+  <si>
+    <t>没太大必要添加链接</t>
+  </si>
+  <si>
+    <t>试用产品</t>
+  </si>
+  <si>
+    <t>产品展示</t>
+  </si>
+  <si>
+    <t>对应项目管理，前端布局</t>
+  </si>
+  <si>
+    <t>功能性，样式有待调整</t>
+  </si>
+  <si>
+    <t>免邮/付邮</t>
+  </si>
+  <si>
+    <t>免邮展示</t>
+  </si>
+  <si>
+    <t>添加邮费字段，结算时加上</t>
+  </si>
+  <si>
+    <t>后期加</t>
+  </si>
+  <si>
+    <t>往期</t>
+  </si>
+  <si>
+    <t>往期展示</t>
+  </si>
+  <si>
+    <t>过期商品展示</t>
+  </si>
+  <si>
+    <t>试用秀</t>
+  </si>
+  <si>
+    <t>试用展示</t>
+  </si>
+  <si>
+    <t>对应评测报告，前端布局</t>
+  </si>
+  <si>
+    <t>试用填写</t>
+  </si>
+  <si>
+    <t>填写，添加商品分类属性，样式</t>
+  </si>
+  <si>
+    <t>功能性,后台商品分类属性完善,完成</t>
+  </si>
+  <si>
+    <t>品牌馆</t>
+  </si>
+  <si>
+    <t>按品牌分类</t>
+  </si>
+  <si>
+    <t>添加商品品牌属性，前端布局</t>
+  </si>
+  <si>
+    <t>功能性,后台商品品牌属完善</t>
+  </si>
+  <si>
+    <t>我的试用</t>
+  </si>
+  <si>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>对应我的申请(试用、购买)</t>
+  </si>
+  <si>
     <t>功能性</t>
-  </si>
-  <si>
-    <t>幻灯片</t>
-  </si>
-  <si>
-    <t>展示幻灯片（参考招行掌上商城，小些）（链接外用加（免费试用/付邮领用/我的试用））</t>
-  </si>
-  <si>
-    <t>对应幻灯片管理，前端布局</t>
-  </si>
-  <si>
-    <t>试用秀链接</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>前端布局</t>
-  </si>
-  <si>
-    <t>试用产品</t>
-  </si>
-  <si>
-    <t>产品展示</t>
-  </si>
-  <si>
-    <t>对应项目管理，前端布局</t>
-  </si>
-  <si>
-    <t>免邮/付邮</t>
-  </si>
-  <si>
-    <t>免邮展示</t>
-  </si>
-  <si>
-    <t>添加邮费字段，结算时加上</t>
-  </si>
-  <si>
-    <t>往期</t>
-  </si>
-  <si>
-    <t>往期展示</t>
-  </si>
-  <si>
-    <t>过期商品展示</t>
-  </si>
-  <si>
-    <t>试用秀</t>
-  </si>
-  <si>
-    <t>试用展示</t>
-  </si>
-  <si>
-    <t>对应评测报告，前端布局</t>
-  </si>
-  <si>
-    <t>试用填写</t>
-  </si>
-  <si>
-    <t>填写，添加商品分类属性，样式</t>
-  </si>
-  <si>
-    <t>功能性,后台商品分类属性完善</t>
-  </si>
-  <si>
-    <t>品牌馆</t>
-  </si>
-  <si>
-    <t>按品牌分类</t>
-  </si>
-  <si>
-    <t>添加商品品牌属性，前端布局</t>
-  </si>
-  <si>
-    <t>功能性,后台商品品牌属完善</t>
-  </si>
-  <si>
-    <t>我的试用</t>
-  </si>
-  <si>
-    <t>我的</t>
-  </si>
-  <si>
-    <t>对应我的申请(试用、购买)</t>
   </si>
   <si>
     <t>其它流程是否一致</t>
@@ -945,12 +960,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,6 +977,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1032,22 +1054,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,9 +1152,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,13 +1184,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,25 +1240,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,13 +1276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,7 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,7 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,13 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,42 +1348,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1380,13 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,6 +1373,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,26 +1501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,6 +1527,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,17 +1575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,10 +1604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,137 +1616,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1762,6 +1784,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1771,14 +1799,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1786,60 +1811,63 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1980,7 +2008,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="7134225"/>
+          <a:off x="5638800" y="7991475"/>
           <a:ext cx="6932930" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2022,7 +2050,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="7362825"/>
+          <a:off x="3000375" y="8220075"/>
           <a:ext cx="2591435" cy="4001135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2042,8 +2070,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1677035</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2060,7 +2088,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315075" y="523875"/>
+          <a:off x="6315075" y="695325"/>
           <a:ext cx="2353310" cy="1771650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2098,12 +2126,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="13192125"/>
+          <a:off x="3619500" y="14049375"/>
           <a:ext cx="2648585" cy="4477385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="685800"/>
+          <a:ext cx="2818765" cy="5628640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12163425" y="685800"/>
+          <a:ext cx="2780665" cy="5609590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2406,1105 +2518,1105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="22" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="22" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="45.25" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="4.25" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="24" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="45.25" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="30" spans="1:7">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="20" customFormat="1" ht="30" spans="1:7">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="66" spans="1:7">
-      <c r="A2" s="26" t="s">
+    <row r="2" s="21" customFormat="1" ht="66" spans="1:7">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="30">
         <v>12</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="1" ht="379.5" spans="1:7">
-      <c r="A3" s="30"/>
-      <c r="B3" s="26" t="s">
+    <row r="3" s="21" customFormat="1" ht="379.5" spans="1:7">
+      <c r="A3" s="32"/>
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="27" t="s">
+    <row r="4" s="21" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28">
+      <c r="E4" s="29"/>
+      <c r="F4" s="30">
         <v>8</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="1" ht="132" spans="1:7">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
+    <row r="5" s="21" customFormat="1" ht="132" spans="1:7">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="19" customFormat="1" ht="99" spans="1:7">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27" t="s">
+    <row r="6" s="21" customFormat="1" ht="99" spans="1:7">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28">
+      <c r="E6" s="29"/>
+      <c r="F6" s="30">
         <v>6</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="27" t="s">
+    <row r="7" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30">
         <v>6</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
+    <row r="8" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30">
         <v>2</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" spans="1:7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="26" t="s">
+    <row r="9" s="21" customFormat="1" spans="1:7">
+      <c r="A9" s="32"/>
+      <c r="B9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="30">
         <v>2</v>
       </c>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="27" t="s">
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30">
         <v>2</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="27" t="s">
+    <row r="11" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28">
+      <c r="E11" s="29"/>
+      <c r="F11" s="30">
         <v>2</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+    <row r="12" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30">
         <v>12</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27" t="s">
+    <row r="13" s="21" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A13" s="32"/>
+      <c r="B13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="30">
         <v>3</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" spans="1:7">
-      <c r="A14" s="30"/>
-      <c r="B14" s="26" t="s">
+    <row r="14" s="21" customFormat="1" spans="1:7">
+      <c r="A14" s="32"/>
+      <c r="B14" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28">
+      <c r="E14" s="29"/>
+      <c r="F14" s="30">
         <v>8</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" ht="66" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="27" t="s">
+    <row r="15" s="21" customFormat="1" ht="66" spans="1:7">
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="30">
         <v>3</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31" t="s">
+    <row r="16" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30">
         <v>2</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="27" t="s">
+    <row r="17" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A17" s="32"/>
+      <c r="B17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="30">
         <v>2</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27" t="s">
+    <row r="18" s="21" customFormat="1" spans="1:7">
+      <c r="A18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30">
         <v>6</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" spans="1:7">
-      <c r="A19" s="30"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+    <row r="19" s="21" customFormat="1" spans="1:7">
+      <c r="A19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30">
         <v>8</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="1" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+    <row r="20" s="21" customFormat="1" spans="1:7">
+      <c r="A20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30">
         <v>6</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+    <row r="21" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" s="19" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="34" t="s">
+    <row r="22" s="21" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A22" s="32"/>
+      <c r="B22" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A23" s="30"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="33" t="s">
+    <row r="23" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A23" s="32"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" s="19" customFormat="1" spans="1:7">
-      <c r="A24" s="30"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="33" t="s">
+    <row r="24" s="21" customFormat="1" spans="1:7">
+      <c r="A24" s="32"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="35" t="s">
+    <row r="25" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A25" s="34"/>
+      <c r="B25" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A26" s="34" t="s">
+    <row r="26" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A26" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" s="19" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A27" s="35"/>
-      <c r="B27" s="34" t="s">
+    <row r="27" s="21" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A27" s="37"/>
+      <c r="B27" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" s="19" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="34" t="s">
+    <row r="28" s="21" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A28" s="37"/>
+      <c r="B28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" s="19" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A29" s="36"/>
-      <c r="B29" s="34" t="s">
+    <row r="29" s="21" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A29" s="38"/>
+      <c r="B29" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A30" s="34" t="s">
+    <row r="30" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A30" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34" t="s">
+    <row r="31" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A31" s="37"/>
+      <c r="B31" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="19" customFormat="1" ht="66" spans="1:7">
-      <c r="A32" s="36"/>
-      <c r="B32" s="34" t="s">
+    <row r="32" s="21" customFormat="1" ht="66" spans="1:7">
+      <c r="A32" s="38"/>
+      <c r="B32" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" s="20" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A33" s="34" t="s">
+    <row r="33" s="22" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A33" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="28" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" s="20" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="34" t="s">
+    <row r="34" s="22" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A34" s="37"/>
+      <c r="B34" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="28" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" s="20" customFormat="1" ht="99" spans="1:7">
-      <c r="A35" s="36"/>
-      <c r="B35" s="34" t="s">
+    <row r="35" s="22" customFormat="1" ht="99" spans="1:7">
+      <c r="A35" s="38"/>
+      <c r="B35" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="28" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" s="20" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A36" s="34" t="s">
+    <row r="36" s="22" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A36" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="28" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" s="20" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="34" t="s">
+    <row r="37" s="22" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A37" s="37"/>
+      <c r="B37" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="28" t="s">
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" s="20" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A38" s="35"/>
-      <c r="B38" s="34" t="s">
+    <row r="38" s="22" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A38" s="37"/>
+      <c r="B38" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="28" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" s="20" customFormat="1" ht="33" spans="1:7">
-      <c r="A39" s="36"/>
-      <c r="B39" s="34" t="s">
+    <row r="39" s="22" customFormat="1" ht="33" spans="1:7">
+      <c r="A39" s="38"/>
+      <c r="B39" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="28" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" s="19" customFormat="1" spans="1:7">
-      <c r="A40" s="26" t="s">
+    <row r="40" s="21" customFormat="1" spans="1:7">
+      <c r="A40" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28">
+      <c r="E40" s="29"/>
+      <c r="F40" s="30">
         <v>6</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="37" t="s">
+    <row r="41" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28">
+      <c r="E41" s="29"/>
+      <c r="F41" s="30">
         <v>6</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" s="19" customFormat="1" spans="1:7">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="37" t="s">
+    <row r="42" s="21" customFormat="1" spans="1:7">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28">
+      <c r="E42" s="29"/>
+      <c r="F42" s="30">
         <v>6</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" s="19" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="37" t="s">
+    <row r="43" s="21" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28">
+      <c r="E43" s="29"/>
+      <c r="F43" s="30">
         <v>12</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" s="19" customFormat="1" ht="66" spans="1:7">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="37" t="s">
+    <row r="44" s="21" customFormat="1" ht="66" spans="1:7">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28">
+      <c r="E44" s="29"/>
+      <c r="F44" s="30">
         <v>6</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" s="19" customFormat="1" spans="1:7">
-      <c r="A45" s="30"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="38" t="s">
+    <row r="45" s="21" customFormat="1" spans="1:7">
+      <c r="A45" s="32"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28">
+      <c r="E45" s="29"/>
+      <c r="F45" s="30">
         <v>2</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" s="19" customFormat="1" spans="1:7">
-      <c r="A46" s="30"/>
-      <c r="B46" s="26" t="s">
+    <row r="46" s="21" customFormat="1" spans="1:7">
+      <c r="A46" s="32"/>
+      <c r="B46" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28">
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30">
         <v>6</v>
       </c>
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" s="19" customFormat="1" spans="1:7">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="32" t="s">
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" s="21" customFormat="1" spans="1:7">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28">
+      <c r="E47" s="29"/>
+      <c r="F47" s="30">
         <v>6</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" s="19" customFormat="1" spans="1:7">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="27" t="s">
+    <row r="48" s="21" customFormat="1" spans="1:7">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28">
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30">
         <v>3</v>
       </c>
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" s="19" customFormat="1" spans="1:7">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="27" t="s">
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" s="21" customFormat="1" spans="1:7">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28">
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30">
         <v>3</v>
       </c>
-      <c r="G49" s="27"/>
-    </row>
-    <row r="50" s="19" customFormat="1" spans="1:7">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="27" t="s">
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" s="21" customFormat="1" spans="1:7">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="27"/>
-    </row>
-    <row r="51" s="19" customFormat="1" spans="1:7">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33" t="s">
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="29"/>
+    </row>
+    <row r="51" s="21" customFormat="1" spans="1:7">
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="G51" s="33" t="s">
+      <c r="E51" s="29"/>
+      <c r="G51" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" s="19" customFormat="1" ht="66" spans="1:7">
-      <c r="A52" s="27" t="s">
+    <row r="52" s="21" customFormat="1" ht="66" spans="1:7">
+      <c r="A52" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30">
         <v>3</v>
       </c>
-      <c r="G52" s="27"/>
-    </row>
-    <row r="53" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27" t="s">
+      <c r="G52" s="29"/>
+    </row>
+    <row r="53" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30">
         <v>3</v>
       </c>
-      <c r="G53" s="27"/>
-    </row>
-    <row r="54" s="19" customFormat="1" ht="66" spans="1:7">
-      <c r="A54" s="34" t="s">
+      <c r="G53" s="29"/>
+    </row>
+    <row r="54" s="21" customFormat="1" ht="66" spans="1:7">
+      <c r="A54" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="34" t="s">
+      <c r="B54" s="28"/>
+      <c r="C54" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="26" t="s">
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" s="19" customFormat="1" ht="66" spans="1:7">
-      <c r="A55" s="33" t="s">
+    <row r="55" s="21" customFormat="1" ht="66" spans="1:7">
+      <c r="A55" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="33" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="27" t="s">
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" s="19" customFormat="1" spans="1:7">
-      <c r="A56" s="33" t="s">
+    <row r="56" s="21" customFormat="1" spans="1:7">
+      <c r="A56" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="33" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" s="19" customFormat="1" ht="17" customHeight="1" spans="1:7">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33" t="s">
+    <row r="57" s="21" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="33" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" s="19" customFormat="1" spans="1:7">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33" t="s">
+    <row r="58" s="21" customFormat="1" spans="1:7">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="33" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" s="19" customFormat="1" spans="1:7">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33" t="s">
+    <row r="59" s="21" customFormat="1" spans="1:7">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="33" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" s="19" customFormat="1" ht="396" spans="1:8">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33" t="s">
+    <row r="60" s="21" customFormat="1" ht="396" spans="1:8">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="27" t="s">
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="H60" s="39" t="s">
+      <c r="H60" s="41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" s="19" customFormat="1" ht="85.5" spans="1:8">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33" t="s">
+    <row r="61" s="21" customFormat="1" ht="85.5" spans="1:8">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="40" t="s">
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" s="19" customFormat="1" spans="1:7">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33" t="s">
+    <row r="62" s="21" customFormat="1" spans="1:7">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="31" t="s">
+      <c r="C62" s="31"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" s="19" customFormat="1" ht="66" spans="1:7">
-      <c r="A63" s="34" t="s">
+    <row r="63" s="21" customFormat="1" ht="66" spans="1:7">
+      <c r="A63" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="33" t="s">
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A64" s="35"/>
-      <c r="B64" s="33" t="s">
+    <row r="64" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A64" s="37"/>
+      <c r="B64" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="33" t="s">
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" s="19" customFormat="1" ht="33" spans="1:7">
-      <c r="A65" s="35"/>
-      <c r="B65" s="33" t="s">
+    <row r="65" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A65" s="37"/>
+      <c r="B65" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="33" t="s">
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" s="19" customFormat="1" spans="1:7">
-      <c r="A66" s="36"/>
-      <c r="B66" s="33" t="s">
+    <row r="66" s="21" customFormat="1" spans="1:7">
+      <c r="A66" s="38"/>
+      <c r="B66" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="33" t="s">
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" s="21" customFormat="1" spans="1:6">
-      <c r="A68" s="21" t="s">
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" s="23" customFormat="1" spans="1:6">
+      <c r="A68" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3541,8 +3653,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F12" sqref="A1:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3566,7 +3678,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3585,266 +3697,299 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" ht="108" spans="1:6">
+        <v>165</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E4" s="5">
         <v>0.5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>165</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E5" s="5">
         <v>0.5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:6">
+        <v>172</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:6">
+        <v>176</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:7">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="14">
         <v>5</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="B8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="14">
         <v>2</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:6">
+      <c r="F8" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E9" s="7">
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" ht="67.5" spans="1:6">
+        <v>165</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="1:6">
-      <c r="A11" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="14">
+        <v>189</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="16">
         <v>3</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5" spans="1:6">
+      <c r="F11" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:7">
       <c r="A12" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11">
         <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>164</v>
+        <v>197</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="7:7">
       <c r="G16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="7:7">
       <c r="G17" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="7:7">
-      <c r="G18" s="16" t="s">
-        <v>196</v>
+      <c r="G18" s="18" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="7:7">
-      <c r="G19" s="17" t="s">
-        <v>197</v>
+      <c r="G19" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="8:9">
       <c r="H59" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I59" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="9:10">
       <c r="I60" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J60" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="9:10">
       <c r="I61" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J61" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="9:10">
       <c r="I62" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="J62" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +4020,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3905,7 +4050,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3993,7 +4138,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -960,10 +960,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1047,14 +1047,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,6 +1180,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -1240,36 +1240,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1307,6 +1277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,6 +1400,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -1502,21 +1502,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1575,6 +1560,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1604,149 +1604,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1783,9 +1783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2008,7 +2005,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="7991475"/>
+          <a:off x="6534150" y="7810500"/>
           <a:ext cx="6932930" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2031,7 +2028,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>562610</xdr:colOff>
+      <xdr:colOff>372110</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
@@ -2050,7 +2047,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="8220075"/>
+          <a:off x="3038475" y="8039100"/>
           <a:ext cx="2591435" cy="4001135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2070,8 +2067,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1677035</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2088,7 +2085,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315075" y="695325"/>
+          <a:off x="7210425" y="695325"/>
           <a:ext cx="2353310" cy="1771650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2106,8 +2103,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>648335</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238885</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
@@ -2126,7 +2123,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3619500" y="14049375"/>
+          <a:off x="3848100" y="13868400"/>
           <a:ext cx="2648585" cy="4477385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2164,8 +2161,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9420225" y="685800"/>
-          <a:ext cx="2818765" cy="5628640"/>
+          <a:off x="10315575" y="685800"/>
+          <a:ext cx="2818765" cy="5457190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,8 +2203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12163425" y="685800"/>
-          <a:ext cx="2780665" cy="5609590"/>
+          <a:off x="13058775" y="685800"/>
+          <a:ext cx="2780665" cy="5438140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2518,1105 +2515,1105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="24" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="25" customWidth="1"/>
-    <col min="7" max="7" width="45.25" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="4.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="24" customWidth="1"/>
+    <col min="7" max="7" width="45.25" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="30" spans="1:7">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="19" customFormat="1" ht="30" spans="1:7">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="21" customFormat="1" ht="66" spans="1:7">
-      <c r="A2" s="28" t="s">
+    <row r="2" s="20" customFormat="1" ht="66" spans="1:7">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>12</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="21" customFormat="1" ht="379.5" spans="1:7">
-      <c r="A3" s="32"/>
-      <c r="B3" s="28" t="s">
+    <row r="3" s="20" customFormat="1" ht="379.5" spans="1:7">
+      <c r="A3" s="31"/>
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="29" t="s">
+    <row r="4" s="20" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30">
+      <c r="E4" s="28"/>
+      <c r="F4" s="29">
         <v>8</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="21" customFormat="1" ht="132" spans="1:7">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="29" t="s">
+    <row r="5" s="20" customFormat="1" ht="132" spans="1:7">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="1" ht="99" spans="1:7">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="29" t="s">
+    <row r="6" s="20" customFormat="1" ht="99" spans="1:7">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29">
         <v>6</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="29" t="s">
+    <row r="7" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29">
         <v>6</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35" t="s">
+    <row r="8" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29">
         <v>2</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" s="21" customFormat="1" spans="1:7">
-      <c r="A9" s="32"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" s="20" customFormat="1" spans="1:7">
+      <c r="A9" s="31"/>
+      <c r="B9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>2</v>
       </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="29" t="s">
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30">
+      <c r="E10" s="28"/>
+      <c r="F10" s="29">
         <v>2</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="29" t="s">
+    <row r="11" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30">
+      <c r="E11" s="28"/>
+      <c r="F11" s="29">
         <v>2</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35" t="s">
+    <row r="12" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29">
         <v>12</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" s="21" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A13" s="32"/>
-      <c r="B13" s="29" t="s">
+    <row r="13" s="20" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <v>3</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" spans="1:7">
-      <c r="A14" s="32"/>
-      <c r="B14" s="28" t="s">
+    <row r="14" s="20" customFormat="1" spans="1:7">
+      <c r="A14" s="31"/>
+      <c r="B14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29">
         <v>8</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="1" ht="66" spans="1:7">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="29" t="s">
+    <row r="15" s="20" customFormat="1" ht="66" spans="1:7">
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>3</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33" t="s">
+    <row r="16" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29">
         <v>2</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A17" s="32"/>
-      <c r="B17" s="29" t="s">
+    <row r="17" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <v>2</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" s="21" customFormat="1" spans="1:7">
-      <c r="A18" s="32"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29" t="s">
+    <row r="18" s="20" customFormat="1" spans="1:7">
+      <c r="A18" s="31"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29">
         <v>6</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" s="21" customFormat="1" spans="1:7">
-      <c r="A19" s="32"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29" t="s">
+    <row r="19" s="20" customFormat="1" spans="1:7">
+      <c r="A19" s="31"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29">
         <v>8</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" s="21" customFormat="1" spans="1:7">
-      <c r="A20" s="32"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29" t="s">
+    <row r="20" s="20" customFormat="1" spans="1:7">
+      <c r="A20" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29">
         <v>6</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33" t="s">
+    <row r="21" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" s="21" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A22" s="32"/>
-      <c r="B22" s="36" t="s">
+    <row r="22" s="20" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A22" s="31"/>
+      <c r="B22" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="32" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="35" t="s">
+    <row r="23" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A23" s="31"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" s="21" customFormat="1" spans="1:7">
-      <c r="A24" s="32"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="35" t="s">
+    <row r="24" s="20" customFormat="1" spans="1:7">
+      <c r="A24" s="31"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A25" s="34"/>
-      <c r="B25" s="37" t="s">
+    <row r="25" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A25" s="33"/>
+      <c r="B25" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A26" s="36" t="s">
+    <row r="26" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A26" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" s="21" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36" t="s">
+    <row r="27" s="20" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A27" s="36"/>
+      <c r="B27" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" s="21" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A28" s="37"/>
-      <c r="B28" s="36" t="s">
+    <row r="28" s="20" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A28" s="36"/>
+      <c r="B28" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" s="21" customFormat="1" ht="82.5" spans="1:7">
-      <c r="A29" s="38"/>
-      <c r="B29" s="36" t="s">
+    <row r="29" s="20" customFormat="1" ht="82.5" spans="1:7">
+      <c r="A29" s="37"/>
+      <c r="B29" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A30" s="36" t="s">
+    <row r="30" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A30" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A31" s="37"/>
-      <c r="B31" s="36" t="s">
+    <row r="31" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A31" s="36"/>
+      <c r="B31" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" s="21" customFormat="1" ht="66" spans="1:7">
-      <c r="A32" s="38"/>
-      <c r="B32" s="36" t="s">
+    <row r="32" s="20" customFormat="1" ht="66" spans="1:7">
+      <c r="A32" s="37"/>
+      <c r="B32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" s="22" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A33" s="36" t="s">
+    <row r="33" s="21" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A33" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="30" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" s="22" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36" t="s">
+    <row r="34" s="21" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A34" s="36"/>
+      <c r="B34" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="30" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" s="22" customFormat="1" ht="99" spans="1:7">
-      <c r="A35" s="38"/>
-      <c r="B35" s="36" t="s">
+    <row r="35" s="21" customFormat="1" ht="99" spans="1:7">
+      <c r="A35" s="37"/>
+      <c r="B35" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="30" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" s="22" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A36" s="36" t="s">
+    <row r="36" s="21" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A36" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="30" t="s">
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" s="22" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A37" s="37"/>
-      <c r="B37" s="36" t="s">
+    <row r="37" s="21" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A37" s="36"/>
+      <c r="B37" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="30" t="s">
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" s="22" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A38" s="37"/>
-      <c r="B38" s="36" t="s">
+    <row r="38" s="21" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A38" s="36"/>
+      <c r="B38" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="30" t="s">
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" s="22" customFormat="1" ht="33" spans="1:7">
-      <c r="A39" s="38"/>
-      <c r="B39" s="36" t="s">
+    <row r="39" s="21" customFormat="1" ht="33" spans="1:7">
+      <c r="A39" s="37"/>
+      <c r="B39" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="30" t="s">
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" s="21" customFormat="1" spans="1:7">
-      <c r="A40" s="28" t="s">
+    <row r="40" s="20" customFormat="1" spans="1:7">
+      <c r="A40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30">
+      <c r="E40" s="28"/>
+      <c r="F40" s="29">
         <v>6</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="39" t="s">
+    <row r="41" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30">
+      <c r="E41" s="28"/>
+      <c r="F41" s="29">
         <v>6</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" s="21" customFormat="1" spans="1:7">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="39" t="s">
+    <row r="42" s="20" customFormat="1" spans="1:7">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30">
+      <c r="E42" s="28"/>
+      <c r="F42" s="29">
         <v>6</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" s="21" customFormat="1" ht="49.5" spans="1:7">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="39" t="s">
+    <row r="43" s="20" customFormat="1" ht="49.5" spans="1:7">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30">
+      <c r="E43" s="28"/>
+      <c r="F43" s="29">
         <v>12</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" s="21" customFormat="1" ht="66" spans="1:7">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="39" t="s">
+    <row r="44" s="20" customFormat="1" ht="66" spans="1:7">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30">
+      <c r="E44" s="28"/>
+      <c r="F44" s="29">
         <v>6</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" s="21" customFormat="1" spans="1:7">
-      <c r="A45" s="32"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="40" t="s">
+    <row r="45" s="20" customFormat="1" spans="1:7">
+      <c r="A45" s="31"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30">
+      <c r="E45" s="28"/>
+      <c r="F45" s="29">
         <v>2</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" s="21" customFormat="1" spans="1:7">
-      <c r="A46" s="32"/>
-      <c r="B46" s="28" t="s">
+    <row r="46" s="20" customFormat="1" spans="1:7">
+      <c r="A46" s="31"/>
+      <c r="B46" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30">
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29">
         <v>6</v>
       </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" s="21" customFormat="1" spans="1:7">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="34" t="s">
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" s="20" customFormat="1" spans="1:7">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30">
+      <c r="E47" s="28"/>
+      <c r="F47" s="29">
         <v>6</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" s="21" customFormat="1" spans="1:7">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="29" t="s">
+    <row r="48" s="20" customFormat="1" spans="1:7">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30">
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29">
         <v>3</v>
       </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" s="21" customFormat="1" spans="1:7">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="29" t="s">
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" s="20" customFormat="1" spans="1:7">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30">
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29">
         <v>3</v>
       </c>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" s="21" customFormat="1" spans="1:7">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="29" t="s">
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" s="20" customFormat="1" spans="1:7">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" s="21" customFormat="1" spans="1:7">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" s="20" customFormat="1" spans="1:7">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="G51" s="35" t="s">
+      <c r="E51" s="28"/>
+      <c r="G51" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" s="21" customFormat="1" ht="66" spans="1:7">
-      <c r="A52" s="29" t="s">
+    <row r="52" s="20" customFormat="1" ht="66" spans="1:7">
+      <c r="A52" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30">
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29">
         <v>3</v>
       </c>
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29" t="s">
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30">
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29">
         <v>3</v>
       </c>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" s="21" customFormat="1" ht="66" spans="1:7">
-      <c r="A54" s="36" t="s">
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" s="20" customFormat="1" ht="66" spans="1:7">
+      <c r="A54" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="36" t="s">
+      <c r="B54" s="27"/>
+      <c r="C54" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="28" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" s="21" customFormat="1" ht="66" spans="1:7">
-      <c r="A55" s="35" t="s">
+    <row r="55" s="20" customFormat="1" ht="66" spans="1:7">
+      <c r="A55" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="35" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="29" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" s="21" customFormat="1" spans="1:7">
-      <c r="A56" s="35" t="s">
+    <row r="56" s="20" customFormat="1" spans="1:7">
+      <c r="A56" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="35" t="s">
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" s="21" customFormat="1" ht="17" customHeight="1" spans="1:7">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35" t="s">
+    <row r="57" s="20" customFormat="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A57" s="34"/>
+      <c r="B57" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="35" t="s">
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="34" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" s="21" customFormat="1" spans="1:7">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35" t="s">
+    <row r="58" s="20" customFormat="1" spans="1:7">
+      <c r="A58" s="34"/>
+      <c r="B58" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="35" t="s">
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" s="21" customFormat="1" spans="1:7">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35" t="s">
+    <row r="59" s="20" customFormat="1" spans="1:7">
+      <c r="A59" s="34"/>
+      <c r="B59" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="35" t="s">
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" s="21" customFormat="1" ht="396" spans="1:8">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35" t="s">
+    <row r="60" s="20" customFormat="1" ht="396" spans="1:8">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="29" t="s">
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="H60" s="41" t="s">
+      <c r="H60" s="40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" s="21" customFormat="1" ht="85.5" spans="1:8">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35" t="s">
+    <row r="61" s="20" customFormat="1" ht="85.5" spans="1:8">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="42" t="s">
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="41" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" s="21" customFormat="1" spans="1:7">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35" t="s">
+    <row r="62" s="20" customFormat="1" spans="1:7">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="33" t="s">
+      <c r="C62" s="30"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" s="21" customFormat="1" ht="66" spans="1:7">
-      <c r="A63" s="36" t="s">
+    <row r="63" s="20" customFormat="1" ht="66" spans="1:7">
+      <c r="A63" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="35" t="s">
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="64" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A64" s="37"/>
-      <c r="B64" s="35" t="s">
+    <row r="64" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A64" s="36"/>
+      <c r="B64" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="35" t="s">
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" s="21" customFormat="1" ht="33" spans="1:7">
-      <c r="A65" s="37"/>
-      <c r="B65" s="35" t="s">
+    <row r="65" s="20" customFormat="1" ht="33" spans="1:7">
+      <c r="A65" s="36"/>
+      <c r="B65" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="35" t="s">
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" s="21" customFormat="1" spans="1:7">
-      <c r="A66" s="38"/>
-      <c r="B66" s="35" t="s">
+    <row r="66" s="20" customFormat="1" spans="1:7">
+      <c r="A66" s="37"/>
+      <c r="B66" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="35" t="s">
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="24"/>
-    </row>
-    <row r="68" s="23" customFormat="1" spans="1:6">
-      <c r="A68" s="23" t="s">
+      <c r="G67" s="23"/>
+    </row>
+    <row r="68" s="22" customFormat="1" spans="1:6">
+      <c r="A68" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F68" s="25"/>
+      <c r="F68" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3653,18 +3650,18 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="B10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3745,7 +3742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:7">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>169</v>
@@ -3798,7 +3795,7 @@
       <c r="D7" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>5</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -3819,7 +3816,7 @@
       <c r="D8" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>2</v>
       </c>
       <c r="F8" s="13" t="s">
@@ -3874,22 +3871,22 @@
       </c>
     </row>
     <row r="11" ht="54" spans="1:7">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>193</v>
       </c>
       <c r="G11">
@@ -3918,12 +3915,12 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" t="s">
@@ -3941,12 +3938,12 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="7:7">
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="7:7">
-      <c r="G19" s="19" t="s">
+    <row r="19" spans="7:7">
+      <c r="G19" s="18" t="s">
         <v>202</v>
       </c>
     </row>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -960,10 +960,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1106,30 +1106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1174,6 +1150,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1182,6 +1159,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1240,7 +1240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,31 +1294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,13 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,7 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,18 +1372,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1420,7 +1390,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,26 +1540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1592,6 +1572,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1604,145 +1604,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2005,7 +2005,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6534150" y="7810500"/>
+          <a:off x="6534150" y="6962775"/>
           <a:ext cx="6932930" cy="5685790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2047,7 +2047,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038475" y="8039100"/>
+          <a:off x="3038475" y="7191375"/>
           <a:ext cx="2591435" cy="4001135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2067,7 +2067,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1677035</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2085,7 +2085,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7210425" y="695325"/>
+          <a:off x="7210425" y="523875"/>
           <a:ext cx="2353310" cy="1771650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2123,7 +2123,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="13868400"/>
+          <a:off x="3848100" y="13020675"/>
           <a:ext cx="2648585" cy="4477385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2161,8 +2161,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10315575" y="685800"/>
-          <a:ext cx="2818765" cy="5457190"/>
+          <a:off x="10315575" y="514350"/>
+          <a:ext cx="2818765" cy="4771390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2203,8 +2203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13058775" y="685800"/>
-          <a:ext cx="2780665" cy="5438140"/>
+          <a:off x="13058775" y="514350"/>
+          <a:ext cx="2780665" cy="4752340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3650,8 +3650,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="B10:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3698,7 +3698,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>161</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" ht="108" spans="1:7">
+    <row r="4" ht="135" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="12" t="s">
         <v>166</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:7">
+    <row r="6" ht="27" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>173</v>
@@ -3849,7 +3849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="67.5" spans="1:7">
+    <row r="10" ht="40.5" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>187</v>
@@ -3867,10 +3867,10 @@
         <v>189</v>
       </c>
       <c r="G10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="14" t="s">
         <v>190</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>193</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:7">
@@ -3911,7 +3911,7 @@
         <v>197</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3942,7 +3942,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" ht="14.25" spans="7:7">
       <c r="G19" s="18" t="s">
         <v>202</v>
       </c>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="商城模块" sheetId="1" r:id="rId1"/>
     <sheet name="试用模块" sheetId="2" r:id="rId2"/>
     <sheet name="erp系统" sheetId="3" r:id="rId3"/>
     <sheet name="cps系统" sheetId="4" r:id="rId4"/>
+    <sheet name="试用模块20180318" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
   <si>
     <t>系统</t>
   </si>
@@ -850,6 +851,9 @@
     <t>后期加</t>
   </si>
   <si>
+    <t>配送方式不要</t>
+  </si>
+  <si>
     <t>往期</t>
   </si>
   <si>
@@ -877,6 +881,9 @@
     <t>功能性,后台商品分类属性完善,完成</t>
   </si>
   <si>
+    <t>图片上传，少内页</t>
+  </si>
+  <si>
     <t>品牌馆</t>
   </si>
   <si>
@@ -899,6 +906,9 @@
   </si>
   <si>
     <t>功能性</t>
+  </si>
+  <si>
+    <t>商品状态，</t>
   </si>
   <si>
     <t>其它流程是否一致</t>
@@ -960,10 +970,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1046,15 +1056,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,41 +1085,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1136,38 +1122,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1182,6 +1137,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1222,7 +1232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,13 +1244,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1292,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,139 +1424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,16 +1511,51 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1540,56 +1585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1598,16 +1593,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1616,133 +1626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1763,6 +1773,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1781,26 +1797,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2059,16 +2069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1677035</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>305435</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1257935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2085,7 +2095,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7210425" y="523875"/>
+          <a:off x="9639300" y="635"/>
           <a:ext cx="2353310" cy="1771650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2205,6 +2215,419 @@
         <a:xfrm>
           <a:off x="13058775" y="514350"/>
           <a:ext cx="2780665" cy="4752340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>437515</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="4629150"/>
+          <a:ext cx="4237990" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>627380</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="2914650"/>
+          <a:ext cx="10600055" cy="5295265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408305</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="6962775"/>
+          <a:ext cx="6932930" cy="5685790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>372110</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="813525351165510073"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="7191375"/>
+          <a:ext cx="2591435" cy="4001135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>305435</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1257935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="327590344626373373"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9639300" y="635"/>
+          <a:ext cx="2353310" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238885</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="188133624818089864"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="13020675"/>
+          <a:ext cx="2648585" cy="4477385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315575" y="514350"/>
+          <a:ext cx="2818765" cy="4771390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058775" y="514350"/>
+          <a:ext cx="2780665" cy="4752340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="4657725"/>
+          <a:ext cx="4237990" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>532130</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="2952750"/>
+          <a:ext cx="10600055" cy="5295265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3650,8 +4073,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3723,7 +4146,7 @@
     </row>
     <row r="4" ht="135" spans="1:7">
       <c r="A4" s="4"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3784,42 +4207,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:7">
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4"/>
-      <c r="B8" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="13">
+      <c r="D8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G8">
@@ -3827,166 +4253,172 @@
       </c>
     </row>
     <row r="9" ht="27" spans="1:7">
-      <c r="A9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="7">
+      <c r="C9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="9">
         <v>5</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>165</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="40.5" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    <row r="10" ht="40.5" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="7">
+      <c r="C10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>189</v>
+      <c r="F10" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:7">
-      <c r="A11" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="15">
+      <c r="B11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>193</v>
+      <c r="F11" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" ht="40.5" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="12" ht="40.5" spans="1:8">
+      <c r="A12" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11">
+      <c r="B12" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>197</v>
+      <c r="F12" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="7:7">
       <c r="G16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="7:7">
       <c r="G17" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="7:7">
-      <c r="G18" s="17" t="s">
-        <v>201</v>
+      <c r="G18" s="15" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="7:7">
-      <c r="G19" s="18" t="s">
-        <v>202</v>
+      <c r="G19" s="16" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="8:9">
       <c r="H59" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="9:10">
       <c r="I60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="9:10">
       <c r="I61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J61" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="9:10">
       <c r="I62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J62" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +4449,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4047,7 +4479,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4080,35 +4512,35 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5"/>
     </row>
   </sheetData>
@@ -4135,7 +4567,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4196,35 +4628,35 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="5"/>
     </row>
   </sheetData>
@@ -4236,4 +4668,412 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="135" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="27" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="27" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="27" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="27" spans="1:7">
+      <c r="A11" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A12" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" customFormat="1"/>
+    <row r="15" customFormat="1" spans="7:7">
+      <c r="G15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="7:7">
+      <c r="G16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="14.25" spans="7:7">
+      <c r="G17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="14.25" spans="7:7">
+      <c r="G18" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" spans="7:7">
+      <c r="G19" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1" spans="7:7">
+      <c r="G22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" spans="8:9">
+      <c r="H59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10">
+      <c r="I60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10">
+      <c r="I61" t="s">
+        <v>211</v>
+      </c>
+      <c r="J61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10">
+      <c r="I62" t="s">
+        <v>213</v>
+      </c>
+      <c r="J62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1" spans="8:8">
+      <c r="H64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G19" r:id="rId2" display="https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1" tooltip="https://pages.tmall.com/wow/baihuo/act/trial?spm=a1z0i.8295104.300.1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4675,8 +4675,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4827,7 +4827,7 @@
         <v>180</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
         <v>181</v>
@@ -4851,7 +4851,7 @@
         <v>180</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="27" spans="1:7">

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -970,10 +970,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1056,7 +1056,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,14 +1064,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,8 +1101,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,79 +1184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,19 +1250,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,7 +1262,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,6 +1293,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,18 +1382,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1358,30 +1400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1394,37 +1412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,41 +1511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1571,6 +1536,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1587,24 +1567,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,10 +1614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1626,133 +1626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4675,8 +4675,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="27" spans="1:7">
+    <row r="6" customFormat="1" ht="27" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>173</v>
@@ -4807,6 +4807,9 @@
       </c>
       <c r="G6">
         <v>60</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="27" spans="1:8">

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView windowWidth="19095" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="商城模块" sheetId="1" r:id="rId1"/>
@@ -970,10 +970,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1053,13 +1053,6 @@
       <color rgb="FFE55640"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1178,7 +1171,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,9 +1192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,6 +1250,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1274,66 +1424,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1341,96 +1431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,10 +1614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1626,133 +1626,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4675,8 +4675,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/新商城功能列表及相关说明20170907v1.2.xlsx
+++ b/doc/新商城功能列表及相关说明20170907v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7950" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="商城模块" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>系统</t>
   </si>
@@ -963,6 +963,24 @@
   </si>
   <si>
     <t>cps系统</t>
+  </si>
+  <si>
+    <t>多图</t>
+  </si>
+  <si>
+    <t>1.分享</t>
+  </si>
+  <si>
+    <t>2.答复</t>
+  </si>
+  <si>
+    <t>3.多图</t>
+  </si>
+  <si>
+    <t>4.个人中心（评论/收藏/点赞）</t>
+  </si>
+  <si>
+    <t>5.主页加个show评测</t>
   </si>
 </sst>
 </file>
@@ -1055,9 +1073,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,25 +1103,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1110,15 +1132,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,9 +1148,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1156,22 +1178,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,15 +1202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,7 +1268,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,13 +1316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,13 +1334,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,19 +1436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,115 +1448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,6 +1529,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1530,37 +1602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,30 +1621,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1614,10 +1632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1626,133 +1644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4675,8 +4693,8 @@
   <sheetPr/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4880,7 +4898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="40.5" spans="1:8">
+    <row r="10" customFormat="1" ht="40.5" spans="1:9">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>188</v>
@@ -4902,6 +4920,9 @@
       </c>
       <c r="H10" t="s">
         <v>191</v>
+      </c>
+      <c r="I10" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="27" spans="1:7">
@@ -4975,19 +4996,36 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="7:7">
+    <row r="18" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
       <c r="G18" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="7:7">
+    <row r="19" customFormat="1" ht="14.25" spans="2:7">
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
       <c r="G19" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1" spans="7:7">
+    <row r="20" customFormat="1" spans="2:2">
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="2:2">
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="2:7">
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
       <c r="G22" t="s">
         <v>206</v>
       </c>
